--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_38FEB98E79279507723B0C873CABE278B74B774F" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{21B6886C-C252-48FB-B8F8-CBB6B77C75CF}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="11835"/>
+    <workbookView xWindow="7005" yWindow="1215" windowWidth="20460" windowHeight="11490" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,15 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1870,7 +1879,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2238,16 +2247,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2338,6 +2347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2373,6 +2399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2548,10 +2591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3050,7 +3095,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3058,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4206,7 +4251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5354,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6502,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7650,7 +7695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8798,7 +8843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9948,7 +9993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11096,7 +11141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12244,7 +12289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13392,7 +13437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14540,7 +14585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -22924,7 +22969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24072,7 +24117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29010,7 +29055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53868,10 +53913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54073,25 +54120,18 @@
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54305,7 +54345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -54514,13 +54554,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -67688,13 +67730,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -69088,13 +69132,47 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC172D0-2C1E-40B7-AE9F-1B7937C082BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC172D0-2C1E-40B7-AE9F-1B7937C082BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_38FEB98E79279507723B0C873CABE278B74B774F" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{21B6886C-C252-48FB-B8F8-CBB6B77C75CF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_38FEB98E79279507723B0C873CABE278B74B774F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87CBE63C-3263-479E-87E2-2DF411D53342}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="1215" windowWidth="20460" windowHeight="11490" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3109,7 +3109,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4257,12 +4259,15 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="16"/>
+    <col min="2" max="2" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
@@ -5405,7 +5410,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22975,7 +22982,7 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54560,8 +54567,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67737,7 +67744,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68880,6 +68887,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -69113,25 +69138,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC172D0-2C1E-40B7-AE9F-1B7937C082BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69149,30 +69182,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_38FEB98E79279507723B0C873CABE278B74B774F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87CBE63C-3263-479E-87E2-2DF411D53342}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{9DA27FD6-9439-4691-A891-0DCAAE6C311A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC3CA88C-E337-488F-86DC-45B405EF0F79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="610">
   <si>
     <t>Source:</t>
   </si>
@@ -1875,6 +1875,9 @@
   <si>
     <t>rail lines is anticipated.</t>
   </si>
+  <si>
+    <t>Note for HK: we changed value for hydrogen to 0 as there is no existing plan for hydroegn</t>
+  </si>
 </sst>
 </file>
 
@@ -1963,7 +1966,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1988,8 +1991,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2104,8 +2125,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -2126,8 +2156,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2242,11 +2273,23 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2256,6 +2299,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent" xfId="10" builtinId="5"/>
     <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2592,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,39 +3102,44 @@
         <v>583</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" s="16" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" s="16" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116" s="16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" s="16" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" s="16" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B119" s="16" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3159,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,135 +3738,135 @@
       </c>
       <c r="B5" s="16">
         <f>Data!I18</f>
-        <v>0.34388074989867007</v>
+        <v>0.9876185925875367</v>
       </c>
       <c r="C5" s="16">
         <f>Data!J18</f>
-        <v>0.3637631514168973</v>
+        <v>0.9879937867515507</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K18</f>
-        <v>0.38364555293512126</v>
+        <v>0.9883689809155648</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L18</f>
-        <v>0.40352795445333811</v>
+        <v>0.98874417507957879</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M18</f>
-        <v>0.42341035597156207</v>
+        <v>0.98911936924359289</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N18</f>
-        <v>0.44329275748978603</v>
+        <v>0.98949456340760689</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O18</f>
-        <v>0.46317515900800288</v>
+        <v>0.98986975757162088</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P18</f>
-        <v>0.48305756052622684</v>
+        <v>0.99024495173563498</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q18</f>
-        <v>0.50293996204445079</v>
+        <v>0.99062014589964897</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R18</f>
-        <v>0.52282236356267475</v>
+        <v>0.99099534006366308</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S18</f>
-        <v>0.5427047650808916</v>
+        <v>0.99137053422767707</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T18</f>
-        <v>0.56258716659911556</v>
+        <v>0.99174572839169117</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U18</f>
-        <v>0.58246956811733952</v>
+        <v>0.99212092255570516</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V18</f>
-        <v>0.60235196963556348</v>
+        <v>0.99249611671971916</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W18</f>
-        <v>0.62223437115378033</v>
+        <v>0.99287131088373326</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X18</f>
-        <v>0.64211677267200429</v>
+        <v>0.99324650504774725</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y18</f>
-        <v>0.66199917419022825</v>
+        <v>0.99362169921176136</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z18</f>
-        <v>0.6818815757084522</v>
+        <v>0.99399689337577535</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA18</f>
-        <v>0.70176397722666906</v>
+        <v>0.99437208753978934</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB18</f>
-        <v>0.72164637874489301</v>
+        <v>0.99474728170380344</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC18</f>
-        <v>0.74152878026311697</v>
+        <v>0.99512247586781744</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD18</f>
-        <v>0.76141118178134093</v>
+        <v>0.99549767003183154</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE18</f>
-        <v>0.78129358329955778</v>
+        <v>0.99587286419584553</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF18</f>
-        <v>0.80117598481778174</v>
+        <v>0.99624805835985963</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG18</f>
-        <v>0.8210583863360057</v>
+        <v>0.99662325252387363</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH18</f>
-        <v>0.84094078785422965</v>
+        <v>0.99699844668788762</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI18</f>
-        <v>0.86082318937244651</v>
+        <v>0.99737364085190172</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ18</f>
-        <v>0.88070559089067046</v>
+        <v>0.99774883501591571</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK18</f>
-        <v>0.90058799240889442</v>
+        <v>0.99812402917992982</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL18</f>
-        <v>0.92047039392711838</v>
+        <v>0.99849922334394381</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM18</f>
-        <v>0.94035279544533523</v>
+        <v>0.99887441750795791</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN18</f>
-        <v>0.96023519696355919</v>
+        <v>0.9992496116719719</v>
       </c>
       <c r="AH5" s="16">
         <f>Data!AO18</f>
-        <v>0.98011759848178315</v>
+        <v>0.9996248058359859</v>
       </c>
       <c r="AI5" s="16">
         <f>Data!AP18</f>
@@ -3971,135 +4020,135 @@
       </c>
       <c r="B7" s="16">
         <f>Data!I20</f>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="C7" s="16">
         <f>Data!J20</f>
-        <v>2.9080305599685219E-5</v>
+        <v>2.6164062557273993E-5</v>
       </c>
       <c r="D7" s="16">
         <f>Data!K20</f>
-        <v>5.5153235561884728E-5</v>
+        <v>5.2328125114547985E-5</v>
       </c>
       <c r="E7" s="16">
         <f>Data!L20</f>
-        <v>8.1226165524084237E-5</v>
+        <v>7.8492187671828917E-5</v>
       </c>
       <c r="F7" s="16">
         <f>Data!M20</f>
-        <v>1.0729909548628375E-4</v>
+        <v>1.0465625022910291E-4</v>
       </c>
       <c r="G7" s="16">
         <f>Data!N20</f>
-        <v>1.3337202544848326E-4</v>
+        <v>1.308203127863769E-4</v>
       </c>
       <c r="H7" s="16">
         <f>Data!O20</f>
-        <v>1.5944495541068276E-4</v>
+        <v>1.5698437534365089E-4</v>
       </c>
       <c r="I7" s="16">
         <f>Data!P20</f>
-        <v>1.8551788537288227E-4</v>
+        <v>1.8314843790093183E-4</v>
       </c>
       <c r="J7" s="16">
         <f>Data!Q20</f>
-        <v>2.1159081533508178E-4</v>
+        <v>2.0931250045820582E-4</v>
       </c>
       <c r="K7" s="16">
         <f>Data!R20</f>
-        <v>2.3766374529728823E-4</v>
+        <v>2.3547656301547981E-4</v>
       </c>
       <c r="L7" s="16">
         <f>Data!S20</f>
-        <v>2.6373667525948774E-4</v>
+        <v>2.616406255727538E-4</v>
       </c>
       <c r="M7" s="16">
         <f>Data!T20</f>
-        <v>2.8980960522168725E-4</v>
+        <v>2.878046881300278E-4</v>
       </c>
       <c r="N7" s="16">
         <f>Data!U20</f>
-        <v>3.1588253518388676E-4</v>
+        <v>3.1396875068730873E-4</v>
       </c>
       <c r="O7" s="16">
         <f>Data!V20</f>
-        <v>3.4195546514608627E-4</v>
+        <v>3.4013281324458272E-4</v>
       </c>
       <c r="P7" s="16">
         <f>Data!W20</f>
-        <v>3.6802839510828578E-4</v>
+        <v>3.6629687580185671E-4</v>
       </c>
       <c r="Q7" s="16">
         <f>Data!X20</f>
-        <v>3.9410132507048529E-4</v>
+        <v>3.9246093835913071E-4</v>
       </c>
       <c r="R7" s="16">
         <f>Data!Y20</f>
-        <v>4.201742550326848E-4</v>
+        <v>4.1862500091641164E-4</v>
       </c>
       <c r="S7" s="16">
         <f>Data!Z20</f>
-        <v>4.4624718499488431E-4</v>
+        <v>4.4478906347368563E-4</v>
       </c>
       <c r="T7" s="16">
         <f>Data!AA20</f>
-        <v>4.7232011495709075E-4</v>
+        <v>4.7095312603095962E-4</v>
       </c>
       <c r="U7" s="16">
         <f>Data!AB20</f>
-        <v>4.9839304491929026E-4</v>
+        <v>4.9711718858823362E-4</v>
       </c>
       <c r="V7" s="16">
         <f>Data!AC20</f>
-        <v>5.2446597488148977E-4</v>
+        <v>5.2328125114551455E-4</v>
       </c>
       <c r="W7" s="16">
         <f>Data!AD20</f>
-        <v>5.5053890484368928E-4</v>
+        <v>5.4944531370278854E-4</v>
       </c>
       <c r="X7" s="16">
         <f>Data!AE20</f>
-        <v>5.7661183480588879E-4</v>
+        <v>5.7560937626006253E-4</v>
       </c>
       <c r="Y7" s="16">
         <f>Data!AF20</f>
-        <v>6.026847647680883E-4</v>
+        <v>6.0177343881733653E-4</v>
       </c>
       <c r="Z7" s="16">
         <f>Data!AG20</f>
-        <v>6.2875769473028781E-4</v>
+        <v>6.2793750137461052E-4</v>
       </c>
       <c r="AA7" s="16">
         <f>Data!AH20</f>
-        <v>6.5483062469248732E-4</v>
+        <v>6.5410156393189145E-4</v>
       </c>
       <c r="AB7" s="16">
         <f>Data!AI20</f>
-        <v>6.8090355465468683E-4</v>
+        <v>6.8026562648916544E-4</v>
       </c>
       <c r="AC7" s="16">
         <f>Data!AJ20</f>
-        <v>7.0697648461689327E-4</v>
+        <v>7.0642968904643944E-4</v>
       </c>
       <c r="AD7" s="16">
         <f>Data!AK20</f>
-        <v>7.3304941457909278E-4</v>
+        <v>7.3259375160371343E-4</v>
       </c>
       <c r="AE7" s="16">
         <f>Data!AL20</f>
-        <v>7.5912234454129229E-4</v>
+        <v>7.5875781416099436E-4</v>
       </c>
       <c r="AF7" s="16">
         <f>Data!AM20</f>
-        <v>7.851952745034918E-4</v>
+        <v>7.8492187671826835E-4</v>
       </c>
       <c r="AG7" s="16">
         <f>Data!AN20</f>
-        <v>8.1126820446569131E-4</v>
+        <v>8.1108593927554234E-4</v>
       </c>
       <c r="AH7" s="16">
         <f>Data!AO20</f>
-        <v>8.3734113442789082E-4</v>
+        <v>8.3725000183281634E-4</v>
       </c>
       <c r="AI7" s="16">
         <f>Data!AP20</f>
@@ -4111,140 +4160,106 @@
         <v>587</v>
       </c>
       <c r="B8" s="16">
-        <f>Data!I21</f>
         <v>0</v>
       </c>
       <c r="C8" s="16">
-        <f>Data!J21</f>
-        <v>1.2194019508654985E-4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>Data!K21</f>
-        <v>1.6397175879267535E-4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
-        <f>Data!L21</f>
-        <v>2.2020054469507926E-4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>Data!M21</f>
-        <v>2.9519063624196203E-4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>Data!N21</f>
-        <v>3.9479206410779832E-4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f>Data!O21</f>
-        <v>5.2636301306601405E-4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f>Data!P21</f>
-        <v>6.9891903334989337E-4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16">
-        <f>Data!Q21</f>
-        <v>9.2310437738180192E-4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16">
-        <f>Data!R21</f>
-        <v>1.2108270796711393E-3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>Data!S21</f>
-        <v>1.5743548600168173E-3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="16">
-        <f>Data!T21</f>
-        <v>2.0246764463638725E-3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f>Data!U21</f>
-        <v>2.5690616586306171E-3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="16">
-        <f>Data!V21</f>
-        <v>3.2080693624108167E-3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="16">
-        <f>Data!W21</f>
-        <v>3.9327354842283689E-3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>Data!X21</f>
-        <v>4.7231121764513846E-3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f>Data!Y21</f>
-        <v>5.5493233735018762E-3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="16">
-        <f>Data!Z21</f>
-        <v>6.3755345705523679E-3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="16">
-        <f>Data!AA21</f>
-        <v>7.1659112627753827E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>Data!AB21</f>
-        <v>7.8905773845929349E-3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="16">
-        <f>Data!AC21</f>
-        <v>8.5295850883731344E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f>Data!AD21</f>
-        <v>9.07397030063988E-3</v>
+        <v>0</v>
       </c>
       <c r="X8" s="16">
-        <f>Data!AE21</f>
-        <v>9.524291886986936E-3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>Data!AF21</f>
-        <v>9.8878196673326136E-3</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <f>Data!AG21</f>
-        <v>1.017554236962195E-2</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f>Data!AH21</f>
-        <v>1.0399727713653859E-2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <f>Data!AI21</f>
-        <v>1.0572283733937739E-2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="16">
-        <f>Data!AJ21</f>
-        <v>1.0703854682895954E-2</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="16">
-        <f>Data!AK21</f>
-        <v>1.080345611076179E-2</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="16">
-        <f>Data!AL21</f>
-        <v>1.0878446202308673E-2</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="16">
-        <f>Data!AM21</f>
-        <v>1.0934674988211077E-2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="16">
-        <f>Data!AN21</f>
-        <v>1.0976706551917204E-2</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="16">
-        <f>Data!AO21</f>
-        <v>1.1008053253227549E-2</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="16">
-        <f>Data!AP21</f>
-        <v>1.1031391150891693E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4260,14 +4275,13 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="16"/>
+    <col min="2" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
@@ -4417,139 +4431,139 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I22</f>
-        <v>3.010505804728952E-4</v>
+        <v>2.1128744483050054E-3</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J22</f>
-        <v>1.1284685585609511E-2</v>
+        <v>1.3076603048549013E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K22</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.6855690467514894E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L22</f>
-        <v>2.01353833789924E-2</v>
+        <v>2.1911260107350422E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M22</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.8653671917040578E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N22</f>
-        <v>3.5861531125930435E-2</v>
+        <v>3.7608906264031211E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O22</f>
-        <v>4.7712646171390136E-2</v>
+        <v>4.943854271024635E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P22</f>
-        <v>6.3255448472074108E-2</v>
+        <v>6.4953175710364672E-2</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q22</f>
-        <v>8.3448707885836276E-2</v>
+        <v>8.5109837477008746E-2</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R22</f>
-        <v>0.10936502811473713</v>
+        <v>0.11097918775802242</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S22</f>
-        <v>0.14210941113553172</v>
+        <v>0.14366422585829974</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T22</f>
-        <v>0.18267165507699426</v>
+        <v>0.18415295602669227</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U22</f>
-        <v>0.23170658133316255</v>
+        <v>0.23309901287892659</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V22</f>
-        <v>0.28926452913544826</v>
+        <v>0.29055264441312756</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W22</f>
-        <v>0.3545380689799798</v>
+        <v>0.35570788448601598</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X22</f>
-        <v>0.42573041944147549</v>
+        <v>0.42677120810413238</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y22</f>
-        <v>0.5001505252902364</v>
+        <v>0.5010564372241525</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z22</f>
-        <v>0.57457063113899742</v>
+        <v>0.57534166634417261</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA22</f>
-        <v>0.64576298160049306</v>
+        <v>0.6464049899622889</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB22</f>
-        <v>0.71103652144502461</v>
+        <v>0.71156023003517743</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC22</f>
-        <v>0.76859446924731034</v>
+        <v>0.76901386156937834</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD22</f>
-        <v>0.81762939550347857</v>
+        <v>0.81795991842161275</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE22</f>
-        <v>0.85819163944494126</v>
+        <v>0.85844864859000536</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF22</f>
-        <v>0.89093602246573578</v>
+        <v>0.89113368669028259</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG22</f>
-        <v>0.91685234269463667</v>
+        <v>0.91700303697129626</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH22</f>
-        <v>0.93704560210839882</v>
+        <v>0.93715969873794036</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI22</f>
-        <v>0.95258840440908288</v>
+        <v>0.95267433173805871</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ22</f>
-        <v>0.96443951945454254</v>
+        <v>0.96450396818427386</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK22</f>
-        <v>0.97341101346348924</v>
+        <v>0.97345920253126439</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL22</f>
-        <v>0.98016566720148057</v>
+        <v>0.98020161434095465</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM22</f>
-        <v>0.98523041603754413</v>
+        <v>0.9852571839807901</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN22</f>
-        <v>0.98901636499486345</v>
+        <v>0.98903627139975603</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO22</f>
-        <v>0.99183988619362395</v>
+        <v>0.99185467533486205</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP22</f>
-        <v>0.99394202281517241</v>
+        <v>0.99395300210814919</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -4558,139 +4572,139 @@
       </c>
       <c r="B3" s="16">
         <f>Data!I23</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="16">
         <f>Data!J23</f>
-        <v>9.9246334655016352E-2</v>
+        <v>1.3080384862445467E-3</v>
       </c>
       <c r="D3" s="16">
         <f>Data!K23</f>
-        <v>9.9322181029181764E-2</v>
+        <v>1.7589062491313377E-3</v>
       </c>
       <c r="E3" s="16">
         <f>Data!L23</f>
-        <v>9.9423646431807233E-2</v>
+        <v>2.362065986106875E-3</v>
       </c>
       <c r="F3" s="16">
         <f>Data!M23</f>
-        <v>9.9558966796805551E-2</v>
+        <v>3.1664760968230584E-3</v>
       </c>
       <c r="G3" s="16">
         <f>Data!N23</f>
-        <v>9.9738698562631345E-2</v>
+        <v>4.2348891893308474E-3</v>
       </c>
       <c r="H3" s="16">
         <f>Data!O23</f>
-        <v>9.9976119646789763E-2</v>
+        <v>5.6462356677165126E-3</v>
       </c>
       <c r="I3" s="16">
         <f>Data!P23</f>
-        <v>0.10028749869921928</v>
+        <v>7.4972243052556431E-3</v>
       </c>
       <c r="J3" s="16">
         <f>Data!Q23</f>
-        <v>0.10069204337913483</v>
+        <v>9.9020347767951929E-3</v>
       </c>
       <c r="K3" s="16">
         <f>Data!R23</f>
-        <v>0.10121124185307927</v>
+        <v>1.2988403202674867E-2</v>
       </c>
       <c r="L3" s="16">
         <f>Data!S23</f>
-        <v>0.10186723134327279</v>
+        <v>1.6887924006079337E-2</v>
       </c>
       <c r="M3" s="16">
         <f>Data!T23</f>
-        <v>0.10267984111843231</v>
+        <v>2.1718472011276163E-2</v>
       </c>
       <c r="N3" s="16">
         <f>Data!U23</f>
-        <v>0.10366218964080433</v>
+        <v>2.7558029742686188E-2</v>
       </c>
       <c r="O3" s="16">
         <f>Data!V23</f>
-        <v>0.10481528538890343</v>
+        <v>3.4412592087432269E-2</v>
       </c>
       <c r="P3" s="16">
         <f>Data!W23</f>
-        <v>0.10612295260311078</v>
+        <v>4.218600245750876E-2</v>
       </c>
       <c r="Q3" s="16">
         <f>Data!X23</f>
-        <v>0.10754919519425249</v>
+        <v>5.0664282579371549E-2</v>
       </c>
       <c r="R3" s="16">
         <f>Data!Y23</f>
-        <v>0.10904010150526387</v>
+        <v>5.9526955324327849E-2</v>
       </c>
       <c r="S3" s="16">
         <f>Data!Z23</f>
-        <v>0.11053100781627526</v>
+        <v>6.8389628069284156E-2</v>
       </c>
       <c r="T3" s="16">
         <f>Data!AA23</f>
-        <v>0.11195725040741697</v>
+        <v>7.686790819114693E-2</v>
       </c>
       <c r="U3" s="16">
         <f>Data!AB23</f>
-        <v>0.11326491762162431</v>
+        <v>8.4641318561223422E-2</v>
       </c>
       <c r="V3" s="16">
         <f>Data!AC23</f>
-        <v>0.11441801336972342</v>
+        <v>9.1495880905969509E-2</v>
       </c>
       <c r="W3" s="16">
         <f>Data!AD23</f>
-        <v>0.11540036189209543</v>
+        <v>9.7335438637379534E-2</v>
       </c>
       <c r="X3" s="16">
         <f>Data!AE23</f>
-        <v>0.11621297166725496</v>
+        <v>0.10216598664257637</v>
       </c>
       <c r="Y3" s="16">
         <f>Data!AF23</f>
-        <v>0.11686896115744848</v>
+        <v>0.10606550744598084</v>
       </c>
       <c r="Z3" s="16">
         <f>Data!AG23</f>
-        <v>0.11738815963139292</v>
+        <v>0.10915187587186051</v>
       </c>
       <c r="AA3" s="16">
         <f>Data!AH23</f>
-        <v>0.11779270431130845</v>
+        <v>0.11155668634340006</v>
       </c>
       <c r="AB3" s="16">
         <f>Data!AI23</f>
-        <v>0.11810408336373798</v>
+        <v>0.11340767498093919</v>
       </c>
       <c r="AC3" s="16">
         <f>Data!AJ23</f>
-        <v>0.1183415044478964</v>
+        <v>0.11481902145932485</v>
       </c>
       <c r="AD3" s="16">
         <f>Data!AK23</f>
-        <v>0.11852123621372219</v>
+        <v>0.11588743455183263</v>
       </c>
       <c r="AE3" s="16">
         <f>Data!AL23</f>
-        <v>0.11865655657872051</v>
+        <v>0.11669184466254882</v>
       </c>
       <c r="AF3" s="16">
         <f>Data!AM23</f>
-        <v>0.11875802198134598</v>
+        <v>0.11729500439952437</v>
       </c>
       <c r="AG3" s="16">
         <f>Data!AN23</f>
-        <v>0.11883386835551138</v>
+        <v>0.11774587216241116</v>
       </c>
       <c r="AH3" s="16">
         <f>Data!AO23</f>
-        <v>0.1188904337893615</v>
+        <v>0.11808212463192411</v>
       </c>
       <c r="AI3" s="16">
         <f>Data!AP23</f>
-        <v>0.11893254725748857</v>
+        <v>0.11833246758332804</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -4699,139 +4713,139 @@
       </c>
       <c r="B4" s="16">
         <f>Data!I24</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="16">
         <f>Data!J24</f>
-        <v>0.10214288480576172</v>
+        <v>6.117389182128008E-3</v>
       </c>
       <c r="D4" s="16">
         <f>Data!K24</f>
-        <v>0.10525947724965157</v>
+        <v>1.2234778364256016E-2</v>
       </c>
       <c r="E4" s="16">
         <f>Data!L24</f>
-        <v>0.10837606969354141</v>
+        <v>1.8352167546384024E-2</v>
       </c>
       <c r="F4" s="16">
         <f>Data!M24</f>
-        <v>0.11149266213743037</v>
+        <v>2.4469556728512032E-2</v>
       </c>
       <c r="G4" s="16">
         <f>Data!N24</f>
-        <v>0.11460925458132021</v>
+        <v>3.0586945910641816E-2</v>
       </c>
       <c r="H4" s="16">
         <f>Data!O24</f>
-        <v>0.11772584702521005</v>
+        <v>3.6704335092769824E-2</v>
       </c>
       <c r="I4" s="16">
         <f>Data!P24</f>
-        <v>0.12084243946909989</v>
+        <v>4.2821724274897832E-2</v>
       </c>
       <c r="J4" s="16">
         <f>Data!Q24</f>
-        <v>0.12395903191298885</v>
+        <v>4.893911345702584E-2</v>
       </c>
       <c r="K4" s="16">
         <f>Data!R24</f>
-        <v>0.12707562435687869</v>
+        <v>5.5056502639153848E-2</v>
       </c>
       <c r="L4" s="16">
         <f>Data!S24</f>
-        <v>0.13019221680076853</v>
+        <v>6.1173891821281856E-2</v>
       </c>
       <c r="M4" s="16">
         <f>Data!T24</f>
-        <v>0.13330880924465838</v>
+        <v>6.7291281003409864E-2</v>
       </c>
       <c r="N4" s="16">
         <f>Data!U24</f>
-        <v>0.13642540168854822</v>
+        <v>7.3408670185537872E-2</v>
       </c>
       <c r="O4" s="16">
         <f>Data!V24</f>
-        <v>0.13954199413243717</v>
+        <v>7.952605936766588E-2</v>
       </c>
       <c r="P4" s="16">
         <f>Data!W24</f>
-        <v>0.14265858657632702</v>
+        <v>8.5643448549793888E-2</v>
       </c>
       <c r="Q4" s="16">
         <f>Data!X24</f>
-        <v>0.14577517902021686</v>
+        <v>9.1760837731921896E-2</v>
       </c>
       <c r="R4" s="16">
         <f>Data!Y24</f>
-        <v>0.1488917714641067</v>
+        <v>9.787822691405168E-2</v>
       </c>
       <c r="S4" s="16">
         <f>Data!Z24</f>
-        <v>0.15200836390799566</v>
+        <v>0.10399561609617969</v>
       </c>
       <c r="T4" s="16">
         <f>Data!AA24</f>
-        <v>0.1551249563518855</v>
+        <v>0.1101130052783077</v>
       </c>
       <c r="U4" s="16">
         <f>Data!AB24</f>
-        <v>0.15824154879577534</v>
+        <v>0.1162303944604357</v>
       </c>
       <c r="V4" s="16">
         <f>Data!AC24</f>
-        <v>0.16135814123966519</v>
+        <v>0.12234778364256371</v>
       </c>
       <c r="W4" s="16">
         <f>Data!AD24</f>
-        <v>0.16447473368355414</v>
+        <v>0.12846517282469172</v>
       </c>
       <c r="X4" s="16">
         <f>Data!AE24</f>
-        <v>0.16759132612744398</v>
+        <v>0.13458256200681973</v>
       </c>
       <c r="Y4" s="16">
         <f>Data!AF24</f>
-        <v>0.17070791857133383</v>
+        <v>0.14069995118894774</v>
       </c>
       <c r="Z4" s="16">
         <f>Data!AG24</f>
-        <v>0.17382451101522367</v>
+        <v>0.14681734037107574</v>
       </c>
       <c r="AA4" s="16">
         <f>Data!AH24</f>
-        <v>0.17694110345911263</v>
+        <v>0.15293472955320375</v>
       </c>
       <c r="AB4" s="16">
         <f>Data!AI24</f>
-        <v>0.18005769590300247</v>
+        <v>0.15905211873533354</v>
       </c>
       <c r="AC4" s="16">
         <f>Data!AJ24</f>
-        <v>0.18317428834689231</v>
+        <v>0.16516950791746154</v>
       </c>
       <c r="AD4" s="16">
         <f>Data!AK24</f>
-        <v>0.18629088079078215</v>
+        <v>0.17128689709958955</v>
       </c>
       <c r="AE4" s="16">
         <f>Data!AL24</f>
-        <v>0.18940747323467111</v>
+        <v>0.17740428628171756</v>
       </c>
       <c r="AF4" s="16">
         <f>Data!AM24</f>
-        <v>0.19252406567856095</v>
+        <v>0.18352167546384557</v>
       </c>
       <c r="AG4" s="16">
         <f>Data!AN24</f>
-        <v>0.19564065812245079</v>
+        <v>0.18963906464597358</v>
       </c>
       <c r="AH4" s="16">
         <f>Data!AO24</f>
-        <v>0.19875725056634064</v>
+        <v>0.19575645382810158</v>
       </c>
       <c r="AI4" s="16">
         <f>Data!AP24</f>
-        <v>0.20187384301023048</v>
+        <v>0.20187384301022959</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -5122,139 +5136,139 @@
       </c>
       <c r="B7" s="16">
         <f>Data!I27</f>
-        <v>6.6456453869682547E-3</v>
+        <v>0.20278899427176261</v>
       </c>
       <c r="C7" s="16">
         <f>Data!J27</f>
-        <v>8.6076782094015591E-3</v>
+        <v>0.20570636719317559</v>
       </c>
       <c r="D7" s="16">
         <f>Data!K27</f>
-        <v>1.0569711031835016E-2</v>
+        <v>0.20862374011458851</v>
       </c>
       <c r="E7" s="16">
         <f>Data!L27</f>
-        <v>1.2531743854268029E-2</v>
+        <v>0.21154111303600143</v>
       </c>
       <c r="F7" s="16">
         <f>Data!M27</f>
-        <v>1.4493776676701486E-2</v>
+        <v>0.21445848595741346</v>
       </c>
       <c r="G7" s="16">
         <f>Data!N27</f>
-        <v>1.6455809499134944E-2</v>
+        <v>0.21737585887882638</v>
       </c>
       <c r="H7" s="16">
         <f>Data!O27</f>
-        <v>1.8417842321568401E-2</v>
+        <v>0.22029323180023841</v>
       </c>
       <c r="I7" s="16">
         <f>Data!P27</f>
-        <v>2.0379875144001414E-2</v>
+        <v>0.22321060472165133</v>
       </c>
       <c r="J7" s="16">
         <f>Data!Q27</f>
-        <v>2.2341907966434871E-2</v>
+        <v>0.22612797764306425</v>
       </c>
       <c r="K7" s="16">
         <f>Data!R27</f>
-        <v>2.4303940788868328E-2</v>
+        <v>0.22904535056447628</v>
       </c>
       <c r="L7" s="16">
         <f>Data!S27</f>
-        <v>2.6265973611301785E-2</v>
+        <v>0.2319627234858892</v>
       </c>
       <c r="M7" s="16">
         <f>Data!T27</f>
-        <v>2.8228006433734798E-2</v>
+        <v>0.23488009640730212</v>
       </c>
       <c r="N7" s="16">
         <f>Data!U27</f>
-        <v>3.0190039256168255E-2</v>
+        <v>0.23779746932871415</v>
       </c>
       <c r="O7" s="16">
         <f>Data!V27</f>
-        <v>3.2152072078601712E-2</v>
+        <v>0.24071484225012707</v>
       </c>
       <c r="P7" s="16">
         <f>Data!W27</f>
-        <v>3.4114104901034725E-2</v>
+        <v>0.2436322151715391</v>
       </c>
       <c r="Q7" s="16">
         <f>Data!X27</f>
-        <v>3.6076137723468182E-2</v>
+        <v>0.24654958809295202</v>
       </c>
       <c r="R7" s="16">
         <f>Data!Y27</f>
-        <v>3.8038170545901639E-2</v>
+        <v>0.24946696101436494</v>
       </c>
       <c r="S7" s="16">
         <f>Data!Z27</f>
-        <v>4.0000203368335097E-2</v>
+        <v>0.25238433393577697</v>
       </c>
       <c r="T7" s="16">
         <f>Data!AA27</f>
-        <v>4.196223619076811E-2</v>
+        <v>0.25530170685718989</v>
       </c>
       <c r="U7" s="16">
         <f>Data!AB27</f>
-        <v>4.3924269013201567E-2</v>
+        <v>0.25821907977860281</v>
       </c>
       <c r="V7" s="16">
         <f>Data!AC27</f>
-        <v>4.5886301835635024E-2</v>
+        <v>0.26113645270001484</v>
       </c>
       <c r="W7" s="16">
         <f>Data!AD27</f>
-        <v>4.7848334658068481E-2</v>
+        <v>0.26405382562142776</v>
       </c>
       <c r="X7" s="16">
         <f>Data!AE27</f>
-        <v>4.9810367480501494E-2</v>
+        <v>0.26697119854283979</v>
       </c>
       <c r="Y7" s="16">
         <f>Data!AF27</f>
-        <v>5.1772400302934951E-2</v>
+        <v>0.26988857146425271</v>
       </c>
       <c r="Z7" s="16">
         <f>Data!AG27</f>
-        <v>5.3734433125368408E-2</v>
+        <v>0.27280594438566563</v>
       </c>
       <c r="AA7" s="16">
         <f>Data!AH27</f>
-        <v>5.5696465947801865E-2</v>
+        <v>0.27572331730707766</v>
       </c>
       <c r="AB7" s="16">
         <f>Data!AI27</f>
-        <v>5.7658498770235322E-2</v>
+        <v>0.27864069022849058</v>
       </c>
       <c r="AC7" s="16">
         <f>Data!AJ27</f>
-        <v>5.962053159266878E-2</v>
+        <v>0.2815580631499035</v>
       </c>
       <c r="AD7" s="16">
         <f>Data!AK27</f>
-        <v>6.1582564415101348E-2</v>
+        <v>0.28447543607131554</v>
       </c>
       <c r="AE7" s="16">
         <f>Data!AL27</f>
-        <v>6.3544597237534806E-2</v>
+        <v>0.28739280899272845</v>
       </c>
       <c r="AF7" s="16">
         <f>Data!AM27</f>
-        <v>6.5506630059968263E-2</v>
+        <v>0.29031018191414049</v>
       </c>
       <c r="AG7" s="16">
         <f>Data!AN27</f>
-        <v>6.746866288240172E-2</v>
+        <v>0.29322755483555341</v>
       </c>
       <c r="AH7" s="16">
         <f>Data!AO27</f>
-        <v>6.9430695704835177E-2</v>
+        <v>0.29614492775696633</v>
       </c>
       <c r="AI7" s="16">
         <f>Data!AP27</f>
-        <v>7.1392728527268634E-2</v>
+        <v>0.29906230067837836</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -5262,140 +5276,106 @@
         <v>587</v>
       </c>
       <c r="B8" s="16">
-        <f>Data!I28</f>
-        <v>6.1388648673957636E-5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="16">
-        <f>Data!J28</f>
-        <v>1.6011197260399348E-3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>Data!K28</f>
-        <v>2.1318496040975739E-3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
-        <f>Data!L28</f>
-        <v>2.8418469026506811E-3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>Data!M28</f>
-        <v>3.7887420127273989E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>Data!N28</f>
-        <v>5.0464028990840539E-3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f>Data!O28</f>
-        <v>6.7077408922347863E-3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f>Data!P28</f>
-        <v>8.8865947708029105E-3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16">
-        <f>Data!Q28</f>
-        <v>1.1717368832226299E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16">
-        <f>Data!R28</f>
-        <v>1.5350425069869443E-2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>Data!S28</f>
-        <v>1.9940667200340271E-2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="16">
-        <f>Data!T28</f>
-        <v>2.5626849191562846E-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f>Data!U28</f>
-        <v>3.250076659665347E-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="16">
-        <f>Data!V28</f>
-        <v>4.0569476175872199E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="16">
-        <f>Data!W28</f>
-        <v>4.971978914433027E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>Data!X28</f>
-        <v>5.9699825300396213E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f>Data!Y28</f>
-        <v>7.0132341466730488E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="16">
-        <f>Data!Z28</f>
-        <v>8.0564857633064771E-2</v>
+        <v>0</v>
       </c>
       <c r="T8" s="16">
-        <f>Data!AA28</f>
-        <v>9.0544893789130693E-2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>Data!AB28</f>
-        <v>9.9695206757588764E-2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="16">
-        <f>Data!AC28</f>
-        <v>0.1077639163368075</v>
+        <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f>Data!AD28</f>
-        <v>0.11463783374189812</v>
+        <v>0</v>
       </c>
       <c r="X8" s="16">
-        <f>Data!AE28</f>
-        <v>0.12032401573312072</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>Data!AF28</f>
-        <v>0.12491425786359153</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <f>Data!AG28</f>
-        <v>0.12854731410123471</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f>Data!AH28</f>
-        <v>0.13137808816265809</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <f>Data!AI28</f>
-        <v>0.13355694204122623</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="16">
-        <f>Data!AJ28</f>
-        <v>0.13521828003437694</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="16">
-        <f>Data!AK28</f>
-        <v>0.13647594092073359</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="16">
-        <f>Data!AL28</f>
-        <v>0.13742283603081032</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="16">
-        <f>Data!AM28</f>
-        <v>0.13813283332936341</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="16">
-        <f>Data!AN28</f>
-        <v>0.13866356320742107</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="16">
-        <f>Data!AO28</f>
-        <v>0.13905937600849283</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="16">
-        <f>Data!AP28</f>
-        <v>0.13935406215597987</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5411,7 +5391,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6272,135 +6252,135 @@
       </c>
       <c r="B7" s="16">
         <f>Data!I34</f>
-        <v>6.2263011725698016E-4</v>
+        <v>4.53554679759572E-3</v>
       </c>
       <c r="C7" s="16">
         <f>Data!J34</f>
-        <v>8.0645285457742188E-4</v>
+        <v>4.6007963021786613E-3</v>
       </c>
       <c r="D7" s="16">
         <f>Data!K34</f>
-        <v>9.9027559189790448E-4</v>
+        <v>4.6660458067616095E-3</v>
       </c>
       <c r="E7" s="16">
         <f>Data!L34</f>
-        <v>1.1740983292183871E-3</v>
+        <v>4.73129531134453E-3</v>
       </c>
       <c r="F7" s="16">
         <f>Data!M34</f>
-        <v>1.3579210665388697E-3</v>
+        <v>4.7965448159274782E-3</v>
       </c>
       <c r="G7" s="16">
         <f>Data!N34</f>
-        <v>1.5417438038593523E-3</v>
+        <v>4.8617943205104264E-3</v>
       </c>
       <c r="H7" s="16">
         <f>Data!O34</f>
-        <v>1.7255665411798349E-3</v>
+        <v>4.9270438250933746E-3</v>
       </c>
       <c r="I7" s="16">
         <f>Data!P34</f>
-        <v>1.9093892785003175E-3</v>
+        <v>4.992293329676295E-3</v>
       </c>
       <c r="J7" s="16">
         <f>Data!Q34</f>
-        <v>2.0932120158208001E-3</v>
+        <v>5.0575428342592432E-3</v>
       </c>
       <c r="K7" s="16">
         <f>Data!R34</f>
-        <v>2.2770347531412827E-3</v>
+        <v>5.1227923388421914E-3</v>
       </c>
       <c r="L7" s="16">
         <f>Data!S34</f>
-        <v>2.4608574904617653E-3</v>
+        <v>5.1880418434251396E-3</v>
       </c>
       <c r="M7" s="16">
         <f>Data!T34</f>
-        <v>2.6446802277822479E-3</v>
+        <v>5.2532913480080601E-3</v>
       </c>
       <c r="N7" s="16">
         <f>Data!U34</f>
-        <v>2.828502965102675E-3</v>
+        <v>5.3185408525910083E-3</v>
       </c>
       <c r="O7" s="16">
         <f>Data!V34</f>
-        <v>3.0123257024231576E-3</v>
+        <v>5.3837903571739565E-3</v>
       </c>
       <c r="P7" s="16">
         <f>Data!W34</f>
-        <v>3.1961484397436402E-3</v>
+        <v>5.4490398617569047E-3</v>
       </c>
       <c r="Q7" s="16">
         <f>Data!X34</f>
-        <v>3.3799711770641228E-3</v>
+        <v>5.5142893663398251E-3</v>
       </c>
       <c r="R7" s="16">
         <f>Data!Y34</f>
-        <v>3.5637939143846054E-3</v>
+        <v>5.5795388709227733E-3</v>
       </c>
       <c r="S7" s="16">
         <f>Data!Z34</f>
-        <v>3.747616651705088E-3</v>
+        <v>5.6447883755057215E-3</v>
       </c>
       <c r="T7" s="16">
         <f>Data!AA34</f>
-        <v>3.9314393890255706E-3</v>
+        <v>5.710037880088642E-3</v>
       </c>
       <c r="U7" s="16">
         <f>Data!AB34</f>
-        <v>4.1152621263460532E-3</v>
+        <v>5.7752873846715902E-3</v>
       </c>
       <c r="V7" s="16">
         <f>Data!AC34</f>
-        <v>4.2990848636665357E-3</v>
+        <v>5.8405368892545384E-3</v>
       </c>
       <c r="W7" s="16">
         <f>Data!AD34</f>
-        <v>4.4829076009870183E-3</v>
+        <v>5.9057863938374866E-3</v>
       </c>
       <c r="X7" s="16">
         <f>Data!AE34</f>
-        <v>4.6667303383075009E-3</v>
+        <v>5.9710358984204071E-3</v>
       </c>
       <c r="Y7" s="16">
         <f>Data!AF34</f>
-        <v>4.8505530756279835E-3</v>
+        <v>6.0362854030033553E-3</v>
       </c>
       <c r="Z7" s="16">
         <f>Data!AG34</f>
-        <v>5.0343758129484661E-3</v>
+        <v>6.1015349075863035E-3</v>
       </c>
       <c r="AA7" s="16">
         <f>Data!AH34</f>
-        <v>5.2181985502688932E-3</v>
+        <v>6.1667844121692517E-3</v>
       </c>
       <c r="AB7" s="16">
         <f>Data!AI34</f>
-        <v>5.4020212875893758E-3</v>
+        <v>6.2320339167521721E-3</v>
       </c>
       <c r="AC7" s="16">
         <f>Data!AJ34</f>
-        <v>5.5858440249098584E-3</v>
+        <v>6.2972834213351203E-3</v>
       </c>
       <c r="AD7" s="16">
         <f>Data!AK34</f>
-        <v>5.769666762230341E-3</v>
+        <v>6.3625329259180685E-3</v>
       </c>
       <c r="AE7" s="16">
         <f>Data!AL34</f>
-        <v>5.9534894995508236E-3</v>
+        <v>6.4277824305010167E-3</v>
       </c>
       <c r="AF7" s="16">
         <f>Data!AM34</f>
-        <v>6.1373122368713062E-3</v>
+        <v>6.4930319350839372E-3</v>
       </c>
       <c r="AG7" s="16">
         <f>Data!AN34</f>
-        <v>6.3211349741917888E-3</v>
+        <v>6.5582814396668854E-3</v>
       </c>
       <c r="AH7" s="16">
         <f>Data!AO34</f>
-        <v>6.5049577115122714E-3</v>
+        <v>6.6235309442498336E-3</v>
       </c>
       <c r="AI7" s="16">
         <f>Data!AP34</f>
@@ -6412,140 +6392,106 @@
         <v>587</v>
       </c>
       <c r="B8" s="16">
-        <f>Data!I35</f>
         <v>0</v>
       </c>
       <c r="C8" s="16">
-        <f>Data!J35</f>
-        <v>1.4432050357032425E-4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>Data!K35</f>
-        <v>1.9406633541527659E-4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
-        <f>Data!L35</f>
-        <v>2.6061507835293629E-4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>Data!M35</f>
-        <v>3.4936848544031421E-4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>Data!N35</f>
-        <v>4.6725027344072021E-4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f>Data!O35</f>
-        <v>6.2296911246174751E-4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f>Data!P35</f>
-        <v>8.2719522284138735E-4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16">
-        <f>Data!Q35</f>
-        <v>1.0925264511603765E-3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16">
-        <f>Data!R35</f>
-        <v>1.4330563744849934E-3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>Data!S35</f>
-        <v>1.8633042700542319E-3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="16">
-        <f>Data!T35</f>
-        <v>2.3962756833283017E-3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f>Data!U35</f>
-        <v>3.0405747015052899E-3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="16">
-        <f>Data!V35</f>
-        <v>3.7968627616434447E-3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="16">
-        <f>Data!W35</f>
-        <v>4.654530567954826E-3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>Data!X35</f>
-        <v>5.5899691421748424E-3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f>Data!Y35</f>
-        <v>6.5678191114088144E-3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="16">
-        <f>Data!Z35</f>
-        <v>7.5456690806427864E-3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="16">
-        <f>Data!AA35</f>
-        <v>8.4811076548628028E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>Data!AB35</f>
-        <v>9.3387754611741827E-3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="16">
-        <f>Data!AC35</f>
-        <v>1.0095063521312338E-2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f>Data!AD35</f>
-        <v>1.0739362539489327E-2</v>
+        <v>0</v>
       </c>
       <c r="X8" s="16">
-        <f>Data!AE35</f>
-        <v>1.1272333952763398E-2</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>Data!AF35</f>
-        <v>1.1702581848332635E-2</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <f>Data!AG35</f>
-        <v>1.2043111771657252E-2</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f>Data!AH35</f>
-        <v>1.2308442999976242E-2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <f>Data!AI35</f>
-        <v>1.2512669110355883E-2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="16">
-        <f>Data!AJ35</f>
-        <v>1.2668387949376908E-2</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="16">
-        <f>Data!AK35</f>
-        <v>1.2786269737377313E-2</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="16">
-        <f>Data!AL35</f>
-        <v>1.2875023144464693E-2</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="16">
-        <f>Data!AM35</f>
-        <v>1.2941571887402352E-2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="16">
-        <f>Data!AN35</f>
-        <v>1.2991317719247305E-2</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="16">
-        <f>Data!AO35</f>
-        <v>1.3028417641181712E-2</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="16">
-        <f>Data!AP35</f>
-        <v>1.3056038862722087E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7138,139 +7084,139 @@
       </c>
       <c r="B5" s="16">
         <f>Data!I39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16">
         <f>Data!J39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="16">
         <f>Data!AO39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="16">
         <f>Data!AP39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -9013,139 +8959,139 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I50</f>
-        <v>0.5118281341400337</v>
+        <v>0</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J50</f>
-        <v>0.51444491476645848</v>
+        <v>0</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K50</f>
-        <v>0.51534689283469481</v>
+        <v>0</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L50</f>
-        <v>0.51655353677595117</v>
+        <v>0</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M50</f>
-        <v>0.51816278972650143</v>
+        <v>0</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N50</f>
-        <v>0.52030019065995547</v>
+        <v>0</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O50</f>
-        <v>0.52312364284477286</v>
+        <v>0</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P50</f>
-        <v>0.52682661585159252</v>
+        <v>0</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q50</f>
-        <v>0.53163753045259587</v>
+        <v>0</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R50</f>
-        <v>0.53781192760358398</v>
+        <v>0</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S50</f>
-        <v>0.54561306694160605</v>
+        <v>0</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T50</f>
-        <v>0.55527676152547534</v>
+        <v>0</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U50</f>
-        <v>0.56695901835441231</v>
+        <v>0</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V50</f>
-        <v>0.58067183042758774</v>
+        <v>0</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W50</f>
-        <v>0.59622283284194855</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X50</f>
-        <v>0.61318395394167213</v>
+        <v>0</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y50</f>
-        <v>0.63091406707001685</v>
+        <v>0</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z50</f>
-        <v>0.64864418019836156</v>
+        <v>0</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA50</f>
-        <v>0.66560530129808515</v>
+        <v>0</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB50</f>
-        <v>0.68115630371244595</v>
+        <v>0</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC50</f>
-        <v>0.69486911578562138</v>
+        <v>0</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD50</f>
-        <v>0.70655137261455836</v>
+        <v>0</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE50</f>
-        <v>0.71621506719842765</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF50</f>
-        <v>0.72401620653644971</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG50</f>
-        <v>0.73019060368743782</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH50</f>
-        <v>0.73500151828844118</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI50</f>
-        <v>0.73870449129526083</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ50</f>
-        <v>0.74152794348007822</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK50</f>
-        <v>0.74366534441353227</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL50</f>
-        <v>0.74527459736408264</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM50</f>
-        <v>0.74648124130533888</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN50</f>
-        <v>0.74738321937357521</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO50</f>
-        <v>0.74805590519823717</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP50</f>
-        <v>0.74855672577200838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -9436,139 +9382,139 @@
       </c>
       <c r="B5" s="16">
         <f>Data!I53</f>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16">
         <f>Data!J53</f>
-        <v>0.49610605174299849</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K53</f>
-        <v>0.50404023762603245</v>
+        <v>0</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L53</f>
-        <v>0.51197442350906286</v>
+        <v>0</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M53</f>
-        <v>0.51990860939209327</v>
+        <v>0</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N53</f>
-        <v>0.52784279527512368</v>
+        <v>0</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O53</f>
-        <v>0.53577698115815764</v>
+        <v>0</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P53</f>
-        <v>0.54371116704118805</v>
+        <v>0</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q53</f>
-        <v>0.55164535292421846</v>
+        <v>0</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R53</f>
-        <v>0.55957953880724887</v>
+        <v>0</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S53</f>
-        <v>0.56751372469028283</v>
+        <v>0</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T53</f>
-        <v>0.57544791057331324</v>
+        <v>0</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U53</f>
-        <v>0.58338209645634365</v>
+        <v>0</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V53</f>
-        <v>0.59131628233937406</v>
+        <v>0</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W53</f>
-        <v>0.59925046822240802</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X53</f>
-        <v>0.60718465410543843</v>
+        <v>0</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y53</f>
-        <v>0.61511883998846884</v>
+        <v>0</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z53</f>
-        <v>0.62305302587149924</v>
+        <v>0</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA53</f>
-        <v>0.63098721175453321</v>
+        <v>0</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB53</f>
-        <v>0.63892139763756362</v>
+        <v>0</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC53</f>
-        <v>0.64685558352059402</v>
+        <v>0</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD53</f>
-        <v>0.65478976940362443</v>
+        <v>0</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE53</f>
-        <v>0.66272395528665839</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF53</f>
-        <v>0.6706581411696888</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG53</f>
-        <v>0.67859232705271921</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH53</f>
-        <v>0.68652651293574962</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI53</f>
-        <v>0.69446069881878358</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ53</f>
-        <v>0.70239488470181399</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK53</f>
-        <v>0.7103290705848444</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL53</f>
-        <v>0.71826325646787481</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM53</f>
-        <v>0.72619744235090877</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN53</f>
-        <v>0.73413162823393918</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="16">
         <f>Data!AO53</f>
-        <v>0.74206581411696959</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="16">
         <f>Data!AP53</f>
-        <v>0.75000000000000355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -11154,7 +11100,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11591,139 +11539,139 @@
       </c>
       <c r="B4" s="16">
         <f>Data!I66</f>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="C4" s="16">
         <f>Data!J66</f>
-        <v>0.79437183853155346</v>
+        <v>0</v>
       </c>
       <c r="D4" s="16">
         <f>Data!K66</f>
-        <v>0.8007977185774422</v>
+        <v>0</v>
       </c>
       <c r="E4" s="16">
         <f>Data!L66</f>
-        <v>0.80722359862333093</v>
+        <v>0</v>
       </c>
       <c r="F4" s="16">
         <f>Data!M66</f>
-        <v>0.81364947866921966</v>
+        <v>0</v>
       </c>
       <c r="G4" s="16">
         <f>Data!N66</f>
-        <v>0.82007535871511017</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16">
         <f>Data!O66</f>
-        <v>0.8265012387609989</v>
+        <v>0</v>
       </c>
       <c r="I4" s="16">
         <f>Data!P66</f>
-        <v>0.83292711880688763</v>
+        <v>0</v>
       </c>
       <c r="J4" s="16">
         <f>Data!Q66</f>
-        <v>0.83935299885277637</v>
+        <v>0</v>
       </c>
       <c r="K4" s="16">
         <f>Data!R66</f>
-        <v>0.8457788788986651</v>
+        <v>0</v>
       </c>
       <c r="L4" s="16">
         <f>Data!S66</f>
-        <v>0.85220475894455383</v>
+        <v>0</v>
       </c>
       <c r="M4" s="16">
         <f>Data!T66</f>
-        <v>0.85863063899044256</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16">
         <f>Data!U66</f>
-        <v>0.8650565190363313</v>
+        <v>0</v>
       </c>
       <c r="O4" s="16">
         <f>Data!V66</f>
-        <v>0.8714823990822218</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16">
         <f>Data!W66</f>
-        <v>0.87790827912811054</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16">
         <f>Data!X66</f>
-        <v>0.88433415917399927</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16">
         <f>Data!Y66</f>
-        <v>0.890760039219888</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16">
         <f>Data!Z66</f>
-        <v>0.89718591926577673</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16">
         <f>Data!AA66</f>
-        <v>0.90361179931166546</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16">
         <f>Data!AB66</f>
-        <v>0.9100376793575542</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16">
         <f>Data!AC66</f>
-        <v>0.91646355940344471</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16">
         <f>Data!AD66</f>
-        <v>0.92288943944933344</v>
+        <v>0</v>
       </c>
       <c r="X4" s="16">
         <f>Data!AE66</f>
-        <v>0.92931531949522217</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="16">
         <f>Data!AF66</f>
-        <v>0.9357411995411109</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="16">
         <f>Data!AG66</f>
-        <v>0.94216707958699963</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="16">
         <f>Data!AH66</f>
-        <v>0.94859295963288837</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="16">
         <f>Data!AI66</f>
-        <v>0.9550188396787771</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="16">
         <f>Data!AJ66</f>
-        <v>0.96144471972466583</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="16">
         <f>Data!AK66</f>
-        <v>0.96787059977055634</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="16">
         <f>Data!AL66</f>
-        <v>0.97429647981644507</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="16">
         <f>Data!AM66</f>
-        <v>0.9807223598623338</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="16">
         <f>Data!AN66</f>
-        <v>0.98714823990822254</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="16">
         <f>Data!AO66</f>
-        <v>0.99357411995411127</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="16">
         <f>Data!AP66</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -11732,139 +11680,139 @@
       </c>
       <c r="B5" s="16">
         <f>Data!I67</f>
-        <v>0.21205404151433599</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16">
         <f>Data!J67</f>
-        <v>0.2359311917714777</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K67</f>
-        <v>0.25980834202861303</v>
+        <v>0</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L67</f>
-        <v>0.28368549228575546</v>
+        <v>0</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M67</f>
-        <v>0.30756264254289789</v>
+        <v>0</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N67</f>
-        <v>0.33143979280004032</v>
+        <v>0</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O67</f>
-        <v>0.35531694305718275</v>
+        <v>0</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P67</f>
-        <v>0.37919409331432519</v>
+        <v>0</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q67</f>
-        <v>0.40307124357146762</v>
+        <v>0</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R67</f>
-        <v>0.42694839382860295</v>
+        <v>0</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S67</f>
-        <v>0.45082554408574538</v>
+        <v>0</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T67</f>
-        <v>0.47470269434288781</v>
+        <v>0</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U67</f>
-        <v>0.49857984460003024</v>
+        <v>0</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V67</f>
-        <v>0.52245699485717267</v>
+        <v>0</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W67</f>
-        <v>0.54633414511431511</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X67</f>
-        <v>0.57021129537145043</v>
+        <v>0</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y67</f>
-        <v>0.59408844562859286</v>
+        <v>0</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z67</f>
-        <v>0.6179655958857353</v>
+        <v>0</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA67</f>
-        <v>0.64184274614287773</v>
+        <v>0</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB67</f>
-        <v>0.66571989640002016</v>
+        <v>0</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC67</f>
-        <v>0.68959704665716259</v>
+        <v>0</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD67</f>
-        <v>0.71347419691430503</v>
+        <v>0</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE67</f>
-        <v>0.73735134717144035</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF67</f>
-        <v>0.76122849742858278</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG67</f>
-        <v>0.78510564768572522</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH67</f>
-        <v>0.80898279794286765</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI67</f>
-        <v>0.83285994820001008</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ67</f>
-        <v>0.85673709845715251</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK67</f>
-        <v>0.88061424871428784</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL67</f>
-        <v>0.90449139897143027</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM67</f>
-        <v>0.9283685492285727</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN67</f>
-        <v>0.95224569948571514</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="16">
         <f>Data!AO67</f>
-        <v>0.97612284974285757</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="16">
         <f>Data!AP67</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -13450,7 +13398,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13605,139 +13555,139 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I78</f>
-        <v>0</v>
+        <v>5.701180403488086E-4</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J78</f>
-        <v>1.098694263059318E-2</v>
+        <v>1.1550796816740011E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K78</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1.5335726791624845E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L78</f>
-        <v>1.984030573407751E-2</v>
+        <v>2.0399112458201286E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M78</f>
-        <v>2.6596993576865863E-2</v>
+        <v>2.7151948191357463E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N78</f>
-        <v>3.5571189272636181E-2</v>
+        <v>3.6121027536263998E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O78</f>
-        <v>4.7425873177566781E-2</v>
+        <v>4.7968952872037764E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P78</f>
-        <v>6.2973356056996513E-2</v>
+        <v>6.3507571850995911E-2</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q78</f>
-        <v>8.317269649392238E-2</v>
+        <v>8.3695396279535539E-2</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R78</f>
-        <v>0.10909682119561293</v>
+        <v>0.10960474117005339</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S78</f>
-        <v>0.14185106490048782</v>
+        <v>0.14234031108969417</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T78</f>
-        <v>0.18242552380635635</v>
+        <v>0.18289163776456308</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U78</f>
-        <v>0.23147521650098238</v>
+        <v>0.23191336634451035</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V78</f>
-        <v>0.28905049737499605</v>
+        <v>0.28945582251221957</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W78</f>
-        <v>0.35434369377420455</v>
+        <v>0.35471179408224884</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X78</f>
-        <v>0.42555748318834102</v>
+        <v>0.4258849832303187</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y78</f>
-        <v>0.5</v>
+        <v>0.50028505902017439</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z78</f>
-        <v>0.57444251681165903</v>
+        <v>0.57468513481003014</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA78</f>
-        <v>0.6456563062257954</v>
+        <v>0.64585832395809994</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB78</f>
-        <v>0.71094950262500389</v>
+        <v>0.71111429552812921</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC78</f>
-        <v>0.76852478349901754</v>
+        <v>0.76865675169583847</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD78</f>
-        <v>0.81757447619364365</v>
+        <v>0.81767848027578571</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE78</f>
-        <v>0.85814893509951229</v>
+        <v>0.85822980695065476</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF78</f>
-        <v>0.89090317880438707</v>
+        <v>0.89096537687029542</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG78</f>
-        <v>0.91682730350607766</v>
+        <v>0.9168747217608133</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH78</f>
-        <v>0.9370266439430035</v>
+        <v>0.93706254618935292</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI78</f>
-        <v>0.95257412682243336</v>
+        <v>0.95260116516831117</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ78</f>
-        <v>0.96442881072736386</v>
+        <v>0.96444909050408489</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK78</f>
-        <v>0.97340300642313404</v>
+        <v>0.97341816984899132</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL78</f>
-        <v>0.98015969426592253</v>
+        <v>0.98017100558214754</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM78</f>
-        <v>0.98522596830672693</v>
+        <v>0.98523439124872392</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN78</f>
-        <v>0.98901305736940681</v>
+        <v>0.9890193212236088</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO78</f>
-        <v>0.99183742884684012</v>
+        <v>0.99184208247591021</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP78</f>
-        <v>0.99394019850841575</v>
+        <v>0.99394365331056711</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -22424,44 +22374,44 @@
       <c r="AM86" s="23"/>
     </row>
     <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="72" t="s">
         <v>556</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="60"/>
-      <c r="O87" s="60"/>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="60"/>
-      <c r="T87" s="60"/>
-      <c r="U87" s="60"/>
-      <c r="V87" s="60"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
-      <c r="Y87" s="60"/>
-      <c r="Z87" s="60"/>
-      <c r="AA87" s="60"/>
-      <c r="AB87" s="60"/>
-      <c r="AC87" s="60"/>
-      <c r="AD87" s="60"/>
-      <c r="AE87" s="60"/>
-      <c r="AF87" s="60"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
-      <c r="AJ87" s="60"/>
-      <c r="AK87" s="60"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="72"/>
+      <c r="O87" s="72"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="72"/>
+      <c r="W87" s="72"/>
+      <c r="X87" s="72"/>
+      <c r="Y87" s="72"/>
+      <c r="Z87" s="72"/>
+      <c r="AA87" s="72"/>
+      <c r="AB87" s="72"/>
+      <c r="AC87" s="72"/>
+      <c r="AD87" s="72"/>
+      <c r="AE87" s="72"/>
+      <c r="AF87" s="72"/>
+      <c r="AG87" s="72"/>
+      <c r="AH87" s="72"/>
+      <c r="AI87" s="72"/>
+      <c r="AJ87" s="72"/>
+      <c r="AK87" s="72"/>
       <c r="AL87" s="23"/>
       <c r="AM87" s="23"/>
     </row>
@@ -22982,7 +22932,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23137,139 +23089,139 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I85</f>
-        <v>0</v>
+        <v>5.5056983978417663E-5</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J85</f>
-        <v>0</v>
+        <v>1.1041394706647212E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K85</f>
-        <v>0</v>
+        <v>1.4828275263625238E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L85</f>
-        <v>0</v>
+        <v>1.9894270370660997E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M85</f>
-        <v>0</v>
+        <v>2.6650586210595045E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N85</f>
-        <v>0</v>
+        <v>3.5624287814216719E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O85</f>
-        <v>0</v>
+        <v>4.7478319036005495E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P85</f>
-        <v>0</v>
+        <v>6.3024945917919434E-2</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q85</f>
-        <v>0</v>
+        <v>8.3223174240082493E-2</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R85</f>
-        <v>0</v>
+        <v>0.10914587163765467</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S85</f>
-        <v>0</v>
+        <v>0.14189831199265868</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T85</f>
-        <v>0</v>
+        <v>0.18247053699119331</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U85</f>
-        <v>0</v>
+        <v>0.23151752915767448</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V85</f>
-        <v>0</v>
+        <v>0.28908964011037153</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W85</f>
-        <v>0</v>
+        <v>0.35437924166311191</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X85</f>
-        <v>0</v>
+        <v>0.42558911026078561</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y85</f>
-        <v>0</v>
+        <v>0.50002752849198917</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z85</f>
-        <v>0</v>
+        <v>0.57446594672319284</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA85</f>
-        <v>0</v>
+        <v>0.64567581532086638</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB85</f>
-        <v>0</v>
+        <v>0.71096541687360681</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC85</f>
-        <v>0</v>
+        <v>0.76853752782630391</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD85</f>
-        <v>0</v>
+        <v>0.81758451999278503</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE85</f>
-        <v>0</v>
+        <v>0.85815674499131978</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF85</f>
-        <v>0</v>
+        <v>0.8909091853463238</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG85</f>
-        <v>0</v>
+        <v>0.91683188274389593</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH85</f>
-        <v>0</v>
+        <v>0.93703011106605905</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI85</f>
-        <v>0</v>
+        <v>0.95257673794797304</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ85</f>
-        <v>0</v>
+        <v>0.96443076916976178</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK85</f>
-        <v>0</v>
+        <v>0.97340447077338332</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL85</f>
-        <v>0</v>
+        <v>0.98016078661331751</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM85</f>
-        <v>0</v>
+        <v>0.98522678172035316</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN85</f>
-        <v>0</v>
+        <v>0.98901366227733123</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO85</f>
-        <v>0</v>
+        <v>0.99183787825338932</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP85</f>
-        <v>0</v>
+        <v>0.99394053214280942</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -23282,135 +23234,135 @@
       </c>
       <c r="C3" s="16">
         <f>Data!J86</f>
-        <v>0</v>
+        <v>1.3954606761049181E-5</v>
       </c>
       <c r="D3" s="16">
         <f>Data!K86</f>
-        <v>0</v>
+        <v>1.8764619920817064E-5</v>
       </c>
       <c r="E3" s="16">
         <f>Data!L86</f>
-        <v>0</v>
+        <v>2.5199336507602488E-5</v>
       </c>
       <c r="F3" s="16">
         <f>Data!M86</f>
-        <v>0</v>
+        <v>3.3781061653843889E-5</v>
       </c>
       <c r="G3" s="16">
         <f>Data!N86</f>
-        <v>0</v>
+        <v>4.5179261875848117E-5</v>
       </c>
       <c r="H3" s="16">
         <f>Data!O86</f>
-        <v>0</v>
+        <v>6.0235994010701734E-5</v>
       </c>
       <c r="I3" s="16">
         <f>Data!P86</f>
-        <v>0</v>
+        <v>7.9982980683997301E-5</v>
       </c>
       <c r="J3" s="16">
         <f>Data!Q86</f>
-        <v>0</v>
+        <v>1.0563833013899318E-4</v>
       </c>
       <c r="K3" s="16">
         <f>Data!R86</f>
-        <v>0</v>
+        <v>1.3856477546593684E-4</v>
       </c>
       <c r="L3" s="16">
         <f>Data!S86</f>
-        <v>0</v>
+        <v>1.8016621146364376E-4</v>
       </c>
       <c r="M3" s="16">
         <f>Data!T86</f>
-        <v>0</v>
+        <v>2.3170016750680698E-4</v>
       </c>
       <c r="N3" s="16">
         <f>Data!U86</f>
-        <v>0</v>
+        <v>2.9399858812455975E-4</v>
       </c>
       <c r="O3" s="16">
         <f>Data!V86</f>
-        <v>0</v>
+        <v>3.6712542884516516E-4</v>
       </c>
       <c r="P3" s="16">
         <f>Data!W86</f>
-        <v>0</v>
+        <v>4.5005485794638134E-4</v>
       </c>
       <c r="Q3" s="16">
         <f>Data!X86</f>
-        <v>0</v>
+        <v>5.4050408123360516E-4</v>
       </c>
       <c r="R3" s="16">
         <f>Data!Y86</f>
-        <v>0</v>
+        <v>6.3505413790878131E-4</v>
       </c>
       <c r="S3" s="16">
         <f>Data!Z86</f>
-        <v>0</v>
+        <v>7.2960419458395747E-4</v>
       </c>
       <c r="T3" s="16">
         <f>Data!AA86</f>
-        <v>0</v>
+        <v>8.2005341787118129E-4</v>
       </c>
       <c r="U3" s="16">
         <f>Data!AB86</f>
-        <v>0</v>
+        <v>9.0298284697239747E-4</v>
       </c>
       <c r="V3" s="16">
         <f>Data!AC86</f>
-        <v>0</v>
+        <v>9.7610968769300287E-4</v>
       </c>
       <c r="W3" s="16">
         <f>Data!AD86</f>
-        <v>0</v>
+        <v>1.0384081083107555E-3</v>
       </c>
       <c r="X3" s="16">
         <f>Data!AE86</f>
-        <v>0</v>
+        <v>1.0899420643539189E-3</v>
       </c>
       <c r="Y3" s="16">
         <f>Data!AF86</f>
-        <v>0</v>
+        <v>1.1315435003516258E-3</v>
       </c>
       <c r="Z3" s="16">
         <f>Data!AG86</f>
-        <v>0</v>
+        <v>1.1644699456785695E-3</v>
       </c>
       <c r="AA3" s="16">
         <f>Data!AH86</f>
-        <v>0</v>
+        <v>1.1901252951335654E-3</v>
       </c>
       <c r="AB3" s="16">
         <f>Data!AI86</f>
-        <v>0</v>
+        <v>1.2098722818068609E-3</v>
       </c>
       <c r="AC3" s="16">
         <f>Data!AJ86</f>
-        <v>0</v>
+        <v>1.2249290139417146E-3</v>
       </c>
       <c r="AD3" s="16">
         <f>Data!AK86</f>
-        <v>0</v>
+        <v>1.2363272141637186E-3</v>
       </c>
       <c r="AE3" s="16">
         <f>Data!AL86</f>
-        <v>0</v>
+        <v>1.2449089393099602E-3</v>
       </c>
       <c r="AF3" s="16">
         <f>Data!AM86</f>
-        <v>0</v>
+        <v>1.2513436558967456E-3</v>
       </c>
       <c r="AG3" s="16">
         <f>Data!AN86</f>
-        <v>0</v>
+        <v>1.2561536690565134E-3</v>
       </c>
       <c r="AH3" s="16">
         <f>Data!AO86</f>
-        <v>0</v>
+        <v>1.2597409266439845E-3</v>
       </c>
       <c r="AI3" s="16">
         <f>Data!AP86</f>
-        <v>0</v>
+        <v>1.26241167179329E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -23419,139 +23371,139 @@
       </c>
       <c r="B4" s="16">
         <f>Data!I87</f>
-        <v>0</v>
+        <v>5.5056983978417665E-4</v>
       </c>
       <c r="C4" s="16">
         <f>Data!J87</f>
-        <v>0</v>
+        <v>3.0836916208272669E-2</v>
       </c>
       <c r="D4" s="16">
         <f>Data!K87</f>
-        <v>0</v>
+        <v>6.1123262576764148E-2</v>
       </c>
       <c r="E4" s="16">
         <f>Data!L87</f>
-        <v>0</v>
+        <v>9.1409608945255627E-2</v>
       </c>
       <c r="F4" s="16">
         <f>Data!M87</f>
-        <v>0</v>
+        <v>0.12169595531374711</v>
       </c>
       <c r="G4" s="16">
         <f>Data!N87</f>
-        <v>0</v>
+        <v>0.15198230168223859</v>
       </c>
       <c r="H4" s="16">
         <f>Data!O87</f>
-        <v>0</v>
+        <v>0.18226864805073006</v>
       </c>
       <c r="I4" s="16">
         <f>Data!P87</f>
-        <v>0</v>
+        <v>0.21255499441922154</v>
       </c>
       <c r="J4" s="16">
         <f>Data!Q87</f>
-        <v>0</v>
+        <v>0.24284134078771302</v>
       </c>
       <c r="K4" s="16">
         <f>Data!R87</f>
-        <v>0</v>
+        <v>0.2731276871562045</v>
       </c>
       <c r="L4" s="16">
         <f>Data!S87</f>
-        <v>0</v>
+        <v>0.30341403352469598</v>
       </c>
       <c r="M4" s="16">
         <f>Data!T87</f>
-        <v>0</v>
+        <v>0.33370037989318746</v>
       </c>
       <c r="N4" s="16">
         <f>Data!U87</f>
-        <v>0</v>
+        <v>0.36398672626167894</v>
       </c>
       <c r="O4" s="16">
         <f>Data!V87</f>
-        <v>0</v>
+        <v>0.39427307263017042</v>
       </c>
       <c r="P4" s="16">
         <f>Data!W87</f>
-        <v>0</v>
+        <v>0.4245594189986619</v>
       </c>
       <c r="Q4" s="16">
         <f>Data!X87</f>
-        <v>0</v>
+        <v>0.45484576536715338</v>
       </c>
       <c r="R4" s="16">
         <f>Data!Y87</f>
-        <v>0</v>
+        <v>0.48513211173564486</v>
       </c>
       <c r="S4" s="16">
         <f>Data!Z87</f>
-        <v>0</v>
+        <v>0.51541845810413633</v>
       </c>
       <c r="T4" s="16">
         <f>Data!AA87</f>
-        <v>0</v>
+        <v>0.54570480447262781</v>
       </c>
       <c r="U4" s="16">
         <f>Data!AB87</f>
-        <v>0</v>
+        <v>0.57599115084111929</v>
       </c>
       <c r="V4" s="16">
         <f>Data!AC87</f>
-        <v>0</v>
+        <v>0.60627749720961077</v>
       </c>
       <c r="W4" s="16">
         <f>Data!AD87</f>
-        <v>0</v>
+        <v>0.63656384357810225</v>
       </c>
       <c r="X4" s="16">
         <f>Data!AE87</f>
-        <v>0</v>
+        <v>0.66685018994659373</v>
       </c>
       <c r="Y4" s="16">
         <f>Data!AF87</f>
-        <v>0</v>
+        <v>0.69713653631508521</v>
       </c>
       <c r="Z4" s="16">
         <f>Data!AG87</f>
-        <v>0</v>
+        <v>0.72742288268357669</v>
       </c>
       <c r="AA4" s="16">
         <f>Data!AH87</f>
-        <v>0</v>
+        <v>0.75770922905206817</v>
       </c>
       <c r="AB4" s="16">
         <f>Data!AI87</f>
-        <v>0</v>
+        <v>0.78799557542055965</v>
       </c>
       <c r="AC4" s="16">
         <f>Data!AJ87</f>
-        <v>0</v>
+        <v>0.81828192178905113</v>
       </c>
       <c r="AD4" s="16">
         <f>Data!AK87</f>
-        <v>0</v>
+        <v>0.8485682681575426</v>
       </c>
       <c r="AE4" s="16">
         <f>Data!AL87</f>
-        <v>0</v>
+        <v>0.87885461452603408</v>
       </c>
       <c r="AF4" s="16">
         <f>Data!AM87</f>
-        <v>0</v>
+        <v>0.90914096089452556</v>
       </c>
       <c r="AG4" s="16">
         <f>Data!AN87</f>
-        <v>0</v>
+        <v>0.93942730726301704</v>
       </c>
       <c r="AH4" s="16">
         <f>Data!AO87</f>
-        <v>0</v>
+        <v>0.96971365363150852</v>
       </c>
       <c r="AI4" s="16">
         <f>Data!AP87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -23564,135 +23516,135 @@
       </c>
       <c r="C5" s="16">
         <f>Data!J88</f>
-        <v>0</v>
+        <v>2.2230279440647038E-3</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K88</f>
-        <v>0</v>
+        <v>4.4460558881294077E-3</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L88</f>
-        <v>0</v>
+        <v>6.6690838321932233E-3</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M88</f>
-        <v>0</v>
+        <v>8.8921117762579271E-3</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N88</f>
-        <v>0</v>
+        <v>1.1115139720322631E-2</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O88</f>
-        <v>0</v>
+        <v>1.3338167664387335E-2</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P88</f>
-        <v>0</v>
+        <v>1.556119560845115E-2</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q88</f>
-        <v>0</v>
+        <v>1.7784223552515854E-2</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R88</f>
-        <v>0</v>
+        <v>2.0007251496580558E-2</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S88</f>
-        <v>0</v>
+        <v>2.2230279440645262E-2</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T88</f>
-        <v>0</v>
+        <v>2.4453307384709966E-2</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U88</f>
-        <v>0</v>
+        <v>2.6676335328773781E-2</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V88</f>
-        <v>0</v>
+        <v>2.8899363272838485E-2</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W88</f>
-        <v>0</v>
+        <v>3.1122391216903189E-2</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X88</f>
-        <v>0</v>
+        <v>3.3345419160967893E-2</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y88</f>
-        <v>0</v>
+        <v>3.5568447105031709E-2</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z88</f>
-        <v>0</v>
+        <v>3.7791475049096412E-2</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA88</f>
-        <v>0</v>
+        <v>4.0014502993161116E-2</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB88</f>
-        <v>0</v>
+        <v>4.223753093722582E-2</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC88</f>
-        <v>0</v>
+        <v>4.4460558881289636E-2</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD88</f>
-        <v>0</v>
+        <v>4.668358682535434E-2</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE88</f>
-        <v>0</v>
+        <v>4.8906614769419043E-2</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF88</f>
-        <v>0</v>
+        <v>5.1129642713483747E-2</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG88</f>
-        <v>0</v>
+        <v>5.3352670657548451E-2</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH88</f>
-        <v>0</v>
+        <v>5.5575698601612267E-2</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI88</f>
-        <v>0</v>
+        <v>5.7798726545676971E-2</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ88</f>
-        <v>0</v>
+        <v>6.0021754489741674E-2</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK88</f>
-        <v>0</v>
+        <v>6.2244782433806378E-2</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL88</f>
-        <v>0</v>
+        <v>6.4467810377870194E-2</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM88</f>
-        <v>0</v>
+        <v>6.6690838321934898E-2</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN88</f>
-        <v>0</v>
+        <v>6.8913866265999602E-2</v>
       </c>
       <c r="AH5" s="16">
         <f>Data!AO88</f>
-        <v>0</v>
+        <v>7.1136894210064305E-2</v>
       </c>
       <c r="AI5" s="16">
         <f>Data!AP88</f>
-        <v>0</v>
+        <v>7.3359922154129009E-2</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -23705,135 +23657,135 @@
       </c>
       <c r="C6" s="16">
         <f>Data!J89</f>
-        <v>0</v>
+        <v>1.1038320809722963E-3</v>
       </c>
       <c r="D6" s="16">
         <f>Data!K89</f>
-        <v>0</v>
+        <v>1.484311941606615E-3</v>
       </c>
       <c r="E6" s="16">
         <f>Data!L89</f>
-        <v>0</v>
+        <v>1.9933084846180697E-3</v>
       </c>
       <c r="F6" s="16">
         <f>Data!M89</f>
-        <v>0</v>
+        <v>2.6721368951003236E-3</v>
       </c>
       <c r="G6" s="16">
         <f>Data!N89</f>
-        <v>0</v>
+        <v>3.5737530628530763E-3</v>
       </c>
       <c r="H6" s="16">
         <f>Data!O89</f>
-        <v>0</v>
+        <v>4.7647650526318787E-3</v>
       </c>
       <c r="I6" s="16">
         <f>Data!P89</f>
-        <v>0</v>
+        <v>6.3267838014050759E-3</v>
       </c>
       <c r="J6" s="16">
         <f>Data!Q89</f>
-        <v>0</v>
+        <v>8.3561636515077382E-3</v>
       </c>
       <c r="K6" s="16">
         <f>Data!R89</f>
-        <v>0</v>
+        <v>1.0960699005790135E-2</v>
       </c>
       <c r="L6" s="16">
         <f>Data!S89</f>
-        <v>0</v>
+        <v>1.4251440225167358E-2</v>
       </c>
       <c r="M6" s="16">
         <f>Data!T89</f>
-        <v>0</v>
+        <v>1.8327859927558369E-2</v>
       </c>
       <c r="N6" s="16">
         <f>Data!U89</f>
-        <v>0</v>
+        <v>2.325576627771991E-2</v>
       </c>
       <c r="O6" s="16">
         <f>Data!V89</f>
-        <v>0</v>
+        <v>2.9040218261910871E-2</v>
       </c>
       <c r="P6" s="16">
         <f>Data!W89</f>
-        <v>0</v>
+        <v>3.5600070923194858E-2</v>
       </c>
       <c r="Q6" s="16">
         <f>Data!X89</f>
-        <v>0</v>
+        <v>4.2754751529612577E-2</v>
       </c>
       <c r="R6" s="16">
         <f>Data!Y89</f>
-        <v>0</v>
+        <v>5.0233814723791854E-2</v>
       </c>
       <c r="S6" s="16">
         <f>Data!Z89</f>
-        <v>0</v>
+        <v>5.7712877917971132E-2</v>
       </c>
       <c r="T6" s="16">
         <f>Data!AA89</f>
-        <v>0</v>
+        <v>6.4867558524388844E-2</v>
       </c>
       <c r="U6" s="16">
         <f>Data!AB89</f>
-        <v>0</v>
+        <v>7.1427411185672834E-2</v>
       </c>
       <c r="V6" s="16">
         <f>Data!AC89</f>
-        <v>0</v>
+        <v>7.7211863169863795E-2</v>
       </c>
       <c r="W6" s="16">
         <f>Data!AD89</f>
-        <v>0</v>
+        <v>8.213976952002533E-2</v>
       </c>
       <c r="X6" s="16">
         <f>Data!AE89</f>
-        <v>0</v>
+        <v>8.6216189222416362E-2</v>
       </c>
       <c r="Y6" s="16">
         <f>Data!AF89</f>
-        <v>0</v>
+        <v>8.9506930441793572E-2</v>
       </c>
       <c r="Z6" s="16">
         <f>Data!AG89</f>
-        <v>0</v>
+        <v>9.2111465796075973E-2</v>
       </c>
       <c r="AA6" s="16">
         <f>Data!AH89</f>
-        <v>0</v>
+        <v>9.4140845646178639E-2</v>
       </c>
       <c r="AB6" s="16">
         <f>Data!AI89</f>
-        <v>0</v>
+        <v>9.5702864394951834E-2</v>
       </c>
       <c r="AC6" s="16">
         <f>Data!AJ89</f>
-        <v>0</v>
+        <v>9.689387638473064E-2</v>
       </c>
       <c r="AD6" s="16">
         <f>Data!AK89</f>
-        <v>0</v>
+        <v>9.7795492552483376E-2</v>
       </c>
       <c r="AE6" s="16">
         <f>Data!AL89</f>
-        <v>0</v>
+        <v>9.8474320962965642E-2</v>
       </c>
       <c r="AF6" s="16">
         <f>Data!AM89</f>
-        <v>0</v>
+        <v>9.8983317505977095E-2</v>
       </c>
       <c r="AG6" s="16">
         <f>Data!AN89</f>
-        <v>0</v>
+        <v>9.9363797366611412E-2</v>
       </c>
       <c r="AH6" s="16">
         <f>Data!AO89</f>
-        <v>0</v>
+        <v>9.9647555273628508E-2</v>
       </c>
       <c r="AI6" s="16">
         <f>Data!AP89</f>
-        <v>0</v>
+        <v>9.9858815556801317E-2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -23842,139 +23794,139 @@
       </c>
       <c r="B7" s="16">
         <f>Data!I90</f>
-        <v>0</v>
+        <v>0.99939437317623736</v>
       </c>
       <c r="C7" s="16">
         <f>Data!J90</f>
-        <v>0</v>
+        <v>0.99941272550423021</v>
       </c>
       <c r="D7" s="16">
         <f>Data!K90</f>
-        <v>0</v>
+        <v>0.99943107783222296</v>
       </c>
       <c r="E7" s="16">
         <f>Data!L90</f>
-        <v>0</v>
+        <v>0.99944943016021581</v>
       </c>
       <c r="F7" s="16">
         <f>Data!M90</f>
-        <v>0</v>
+        <v>0.99946778248820867</v>
       </c>
       <c r="G7" s="16">
         <f>Data!N90</f>
-        <v>0</v>
+        <v>0.99948613481620141</v>
       </c>
       <c r="H7" s="16">
         <f>Data!O90</f>
-        <v>0</v>
+        <v>0.99950448714419426</v>
       </c>
       <c r="I7" s="16">
         <f>Data!P90</f>
-        <v>0</v>
+        <v>0.99952283947218701</v>
       </c>
       <c r="J7" s="16">
         <f>Data!Q90</f>
-        <v>0</v>
+        <v>0.99954119180017986</v>
       </c>
       <c r="K7" s="16">
         <f>Data!R90</f>
-        <v>0</v>
+        <v>0.99955954412817261</v>
       </c>
       <c r="L7" s="16">
         <f>Data!S90</f>
-        <v>0</v>
+        <v>0.99957789645616546</v>
       </c>
       <c r="M7" s="16">
         <f>Data!T90</f>
-        <v>0</v>
+        <v>0.99959624878415831</v>
       </c>
       <c r="N7" s="16">
         <f>Data!U90</f>
-        <v>0</v>
+        <v>0.99961460111215106</v>
       </c>
       <c r="O7" s="16">
         <f>Data!V90</f>
-        <v>0</v>
+        <v>0.99963295344014391</v>
       </c>
       <c r="P7" s="16">
         <f>Data!W90</f>
-        <v>0</v>
+        <v>0.99965130576813666</v>
       </c>
       <c r="Q7" s="16">
         <f>Data!X90</f>
-        <v>0</v>
+        <v>0.99966965809612951</v>
       </c>
       <c r="R7" s="16">
         <f>Data!Y90</f>
-        <v>0</v>
+        <v>0.99968801042412236</v>
       </c>
       <c r="S7" s="16">
         <f>Data!Z90</f>
-        <v>0</v>
+        <v>0.99970636275211511</v>
       </c>
       <c r="T7" s="16">
         <f>Data!AA90</f>
-        <v>0</v>
+        <v>0.99972471508010796</v>
       </c>
       <c r="U7" s="16">
         <f>Data!AB90</f>
-        <v>0</v>
+        <v>0.99974306740810071</v>
       </c>
       <c r="V7" s="16">
         <f>Data!AC90</f>
-        <v>0</v>
+        <v>0.99976141973609356</v>
       </c>
       <c r="W7" s="16">
         <f>Data!AD90</f>
-        <v>0</v>
+        <v>0.9997797720640863</v>
       </c>
       <c r="X7" s="16">
         <f>Data!AE90</f>
-        <v>0</v>
+        <v>0.99979812439207916</v>
       </c>
       <c r="Y7" s="16">
         <f>Data!AF90</f>
-        <v>0</v>
+        <v>0.9998164767200719</v>
       </c>
       <c r="Z7" s="16">
         <f>Data!AG90</f>
-        <v>0</v>
+        <v>0.99983482904806475</v>
       </c>
       <c r="AA7" s="16">
         <f>Data!AH90</f>
-        <v>0</v>
+        <v>0.99985318137605761</v>
       </c>
       <c r="AB7" s="16">
         <f>Data!AI90</f>
-        <v>0</v>
+        <v>0.99987153370405035</v>
       </c>
       <c r="AC7" s="16">
         <f>Data!AJ90</f>
-        <v>0</v>
+        <v>0.99988988603204321</v>
       </c>
       <c r="AD7" s="16">
         <f>Data!AK90</f>
-        <v>0</v>
+        <v>0.99990823836003595</v>
       </c>
       <c r="AE7" s="16">
         <f>Data!AL90</f>
-        <v>0</v>
+        <v>0.9999265906880288</v>
       </c>
       <c r="AF7" s="16">
         <f>Data!AM90</f>
-        <v>0</v>
+        <v>0.99994494301602166</v>
       </c>
       <c r="AG7" s="16">
         <f>Data!AN90</f>
-        <v>0</v>
+        <v>0.9999632953440144</v>
       </c>
       <c r="AH7" s="16">
         <f>Data!AO90</f>
-        <v>0</v>
+        <v>0.99998164767200726</v>
       </c>
       <c r="AI7" s="16">
         <f>Data!AP90</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -23982,139 +23934,105 @@
         <v>587</v>
       </c>
       <c r="B8" s="16">
-        <f>Data!I91</f>
         <v>0</v>
       </c>
       <c r="C8" s="16">
-        <f>Data!J91</f>
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>Data!K91</f>
         <v>0</v>
       </c>
       <c r="E8" s="16">
-        <f>Data!L91</f>
         <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>Data!M91</f>
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>Data!N91</f>
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f>Data!O91</f>
         <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f>Data!P91</f>
         <v>0</v>
       </c>
       <c r="J8" s="16">
-        <f>Data!Q91</f>
         <v>0</v>
       </c>
       <c r="K8" s="16">
-        <f>Data!R91</f>
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>Data!S91</f>
         <v>0</v>
       </c>
       <c r="M8" s="16">
-        <f>Data!T91</f>
         <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f>Data!U91</f>
         <v>0</v>
       </c>
       <c r="O8" s="16">
-        <f>Data!V91</f>
         <v>0</v>
       </c>
       <c r="P8" s="16">
-        <f>Data!W91</f>
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>Data!X91</f>
         <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f>Data!Y91</f>
         <v>0</v>
       </c>
       <c r="S8" s="16">
-        <f>Data!Z91</f>
         <v>0</v>
       </c>
       <c r="T8" s="16">
-        <f>Data!AA91</f>
         <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>Data!AB91</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
-        <f>Data!AC91</f>
         <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f>Data!AD91</f>
         <v>0</v>
       </c>
       <c r="X8" s="16">
-        <f>Data!AE91</f>
         <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>Data!AF91</f>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <f>Data!AG91</f>
         <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f>Data!AH91</f>
         <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <f>Data!AI91</f>
         <v>0</v>
       </c>
       <c r="AC8" s="16">
-        <f>Data!AJ91</f>
         <v>0</v>
       </c>
       <c r="AD8" s="16">
-        <f>Data!AK91</f>
         <v>0</v>
       </c>
       <c r="AE8" s="16">
-        <f>Data!AL91</f>
         <v>0</v>
       </c>
       <c r="AF8" s="16">
-        <f>Data!AM91</f>
         <v>0</v>
       </c>
       <c r="AG8" s="16">
-        <f>Data!AN91</f>
         <v>0</v>
       </c>
       <c r="AH8" s="16">
-        <f>Data!AO91</f>
         <v>0</v>
       </c>
       <c r="AI8" s="16">
-        <f>Data!AP91</f>
         <v>0</v>
       </c>
     </row>
@@ -28968,44 +28886,44 @@
     </row>
     <row r="66" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="60"/>
-      <c r="V67" s="60"/>
-      <c r="W67" s="60"/>
-      <c r="X67" s="60"/>
-      <c r="Y67" s="60"/>
-      <c r="Z67" s="60"/>
-      <c r="AA67" s="60"/>
-      <c r="AB67" s="60"/>
-      <c r="AC67" s="60"/>
-      <c r="AD67" s="60"/>
-      <c r="AE67" s="60"/>
-      <c r="AF67" s="60"/>
-      <c r="AG67" s="60"/>
-      <c r="AH67" s="60"/>
-      <c r="AI67" s="60"/>
-      <c r="AJ67" s="60"/>
-      <c r="AK67" s="60"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72"/>
+      <c r="Y67" s="72"/>
+      <c r="Z67" s="72"/>
+      <c r="AA67" s="72"/>
+      <c r="AB67" s="72"/>
+      <c r="AC67" s="72"/>
+      <c r="AD67" s="72"/>
+      <c r="AE67" s="72"/>
+      <c r="AF67" s="72"/>
+      <c r="AG67" s="72"/>
+      <c r="AH67" s="72"/>
+      <c r="AI67" s="72"/>
+      <c r="AJ67" s="72"/>
+      <c r="AK67" s="72"/>
     </row>
     <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="35" t="s">
@@ -53816,44 +53734,44 @@
     </row>
     <row r="274" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="275" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="60" t="s">
+      <c r="B275" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C275" s="60"/>
-      <c r="D275" s="60"/>
-      <c r="E275" s="60"/>
-      <c r="F275" s="60"/>
-      <c r="G275" s="60"/>
-      <c r="H275" s="60"/>
-      <c r="I275" s="60"/>
-      <c r="J275" s="60"/>
-      <c r="K275" s="60"/>
-      <c r="L275" s="60"/>
-      <c r="M275" s="60"/>
-      <c r="N275" s="60"/>
-      <c r="O275" s="60"/>
-      <c r="P275" s="60"/>
-      <c r="Q275" s="60"/>
-      <c r="R275" s="60"/>
-      <c r="S275" s="60"/>
-      <c r="T275" s="60"/>
-      <c r="U275" s="60"/>
-      <c r="V275" s="60"/>
-      <c r="W275" s="60"/>
-      <c r="X275" s="60"/>
-      <c r="Y275" s="60"/>
-      <c r="Z275" s="60"/>
-      <c r="AA275" s="60"/>
-      <c r="AB275" s="60"/>
-      <c r="AC275" s="60"/>
-      <c r="AD275" s="60"/>
-      <c r="AE275" s="60"/>
-      <c r="AF275" s="60"/>
-      <c r="AG275" s="60"/>
-      <c r="AH275" s="60"/>
-      <c r="AI275" s="60"/>
-      <c r="AJ275" s="60"/>
-      <c r="AK275" s="60"/>
+      <c r="C275" s="72"/>
+      <c r="D275" s="72"/>
+      <c r="E275" s="72"/>
+      <c r="F275" s="72"/>
+      <c r="G275" s="72"/>
+      <c r="H275" s="72"/>
+      <c r="I275" s="72"/>
+      <c r="J275" s="72"/>
+      <c r="K275" s="72"/>
+      <c r="L275" s="72"/>
+      <c r="M275" s="72"/>
+      <c r="N275" s="72"/>
+      <c r="O275" s="72"/>
+      <c r="P275" s="72"/>
+      <c r="Q275" s="72"/>
+      <c r="R275" s="72"/>
+      <c r="S275" s="72"/>
+      <c r="T275" s="72"/>
+      <c r="U275" s="72"/>
+      <c r="V275" s="72"/>
+      <c r="W275" s="72"/>
+      <c r="X275" s="72"/>
+      <c r="Y275" s="72"/>
+      <c r="Z275" s="72"/>
+      <c r="AA275" s="72"/>
+      <c r="AB275" s="72"/>
+      <c r="AC275" s="72"/>
+      <c r="AD275" s="72"/>
+      <c r="AE275" s="72"/>
+      <c r="AF275" s="72"/>
+      <c r="AG275" s="72"/>
+      <c r="AH275" s="72"/>
+      <c r="AI275" s="72"/>
+      <c r="AJ275" s="72"/>
+      <c r="AK275" s="72"/>
     </row>
     <row r="276" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="35" t="s">
@@ -53921,10 +53839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53969,25 +53887,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>369177</v>
+        <v>10693</v>
       </c>
       <c r="C2" s="5">
-        <v>141561</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>251507362</v>
+        <v>582045</v>
       </c>
       <c r="E2" s="5">
-        <v>1232880</v>
+        <v>11934</v>
       </c>
       <c r="F2" s="5">
-        <v>357614</v>
+        <v>61</v>
       </c>
       <c r="G2" s="5">
-        <v>105105</v>
+        <v>18152</v>
       </c>
       <c r="H2" s="6">
-        <v>4172</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -53996,25 +53914,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="6">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5">
-        <v>90051.74602116608</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>98680.718907420727</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>800794.19250958553</v>
+        <v>16934</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>6622.4539841735223</v>
+        <v>4319</v>
       </c>
       <c r="H3" s="5">
-        <v>61.174419837550886</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="54"/>
@@ -54023,25 +53941,25 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6585.1777339999999</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="B4" s="61">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0</v>
+      </c>
+      <c r="G4" s="61">
+        <v>0</v>
+      </c>
+      <c r="H4" s="61">
         <v>0</v>
       </c>
     </row>
@@ -54049,25 +53967,25 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
-        <v>1258.1247365296165</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1199.9752634703832</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="B5" s="61">
+        <v>0</v>
+      </c>
+      <c r="C5" s="61">
+        <v>0</v>
+      </c>
+      <c r="D5" s="61">
+        <v>0</v>
+      </c>
+      <c r="E5" s="61">
+        <v>0</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0</v>
+      </c>
+      <c r="G5" s="61">
+        <v>0</v>
+      </c>
+      <c r="H5" s="61">
         <v>0</v>
       </c>
     </row>
@@ -54075,25 +53993,25 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10010853.402560361</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2694146.5974396388</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="B6" s="61">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61">
+        <v>0</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0</v>
+      </c>
+      <c r="E6" s="61">
+        <v>0</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0</v>
+      </c>
+      <c r="G6" s="61">
+        <v>0</v>
+      </c>
+      <c r="H6" s="61">
         <v>0</v>
       </c>
     </row>
@@ -54102,13 +54020,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>8705071.2002178878</v>
+        <v>77133</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -54126,6 +54044,403 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>369177</v>
+      </c>
+      <c r="C10" s="5">
+        <v>141561</v>
+      </c>
+      <c r="D10" s="5">
+        <v>251507362</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1232880</v>
+      </c>
+      <c r="F10" s="5">
+        <v>357614</v>
+      </c>
+      <c r="G10" s="5">
+        <v>105105</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4172</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>300</v>
+      </c>
+      <c r="C11" s="5">
+        <v>90051.74602116608</v>
+      </c>
+      <c r="D11" s="6">
+        <v>98680.718907420727</v>
+      </c>
+      <c r="E11" s="5">
+        <v>800794.19250958553</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6622.4539841735223</v>
+      </c>
+      <c r="H11" s="5">
+        <v>61.174419837550886</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6585.1777339999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1258.1247365296165</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1199.9752634703832</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10010853.402560361</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2694146.5974396388</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8705071.2002178878</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="67">
+        <f>B2/SUM(2:2)</f>
+        <v>1.7166892765117157E-2</v>
+      </c>
+      <c r="C22" s="67">
+        <f t="shared" ref="C22:H22" si="0">C2/SUM(2:2)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="67">
+        <f t="shared" si="0"/>
+        <v>0.93443412507926826</v>
+      </c>
+      <c r="E22" s="67">
+        <f t="shared" si="0"/>
+        <v>1.9159234850734886E-2</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="0"/>
+        <v>9.7931399857116488E-5</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="0"/>
+        <v>2.9141815905022597E-2</v>
+      </c>
+      <c r="H22" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="67">
+        <f t="shared" ref="B23:H23" si="1">B3/SUM(3:3)</f>
+        <v>2.1128744483050054E-3</v>
+      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="67">
+        <f t="shared" si="1"/>
+        <v>0.79509813127993234</v>
+      </c>
+      <c r="F23" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="67">
+        <f t="shared" si="1"/>
+        <v>0.20278899427176261</v>
+      </c>
+      <c r="H23" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="67">
+        <f t="shared" ref="B27:H27" si="2">B7/SUM(7:7)</f>
+        <v>5.701180403488086E-4</v>
+      </c>
+      <c r="C27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="67">
+        <f t="shared" si="2"/>
+        <v>0.99942988195965121</v>
+      </c>
+      <c r="E27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54134,10 +54449,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54183,22 +54498,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="6">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6">
-        <v>11380.197</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>9022563.2320000008</v>
+        <v>824</v>
       </c>
       <c r="E2" s="6">
-        <v>4734830.5659999996</v>
+        <v>72348</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>41.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" s="59">
         <v>0</v>
@@ -54211,22 +54526,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="59">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C3" s="59">
-        <v>32117</v>
+        <v>0</v>
       </c>
       <c r="D3" s="59">
-        <v>2587286</v>
+        <v>77</v>
       </c>
       <c r="E3" s="59">
-        <v>9312751</v>
+        <v>45029</v>
       </c>
       <c r="F3" s="59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="6">
-        <v>7434</v>
+        <v>206</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -54237,25 +54552,25 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="59">
-        <v>0</v>
-      </c>
-      <c r="C4" s="59">
-        <v>0</v>
-      </c>
-      <c r="D4" s="59">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>936.50335700000005</v>
-      </c>
-      <c r="F4" s="59">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="B4" s="64">
+        <v>0</v>
+      </c>
+      <c r="C4" s="64">
+        <v>0</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0</v>
+      </c>
+      <c r="E4" s="65">
+        <v>0</v>
+      </c>
+      <c r="F4" s="64">
+        <v>0</v>
+      </c>
+      <c r="G4" s="60">
+        <v>0</v>
+      </c>
+      <c r="H4" s="60">
         <v>0</v>
       </c>
     </row>
@@ -54263,25 +54578,25 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="59">
-        <v>0</v>
-      </c>
-      <c r="C5" s="59">
-        <v>0</v>
-      </c>
-      <c r="D5" s="59">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>28117.828402366868</v>
-      </c>
-      <c r="F5" s="59">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="B5" s="64">
+        <v>0</v>
+      </c>
+      <c r="C5" s="64">
+        <v>0</v>
+      </c>
+      <c r="D5" s="64">
+        <v>0</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0</v>
+      </c>
+      <c r="F5" s="64">
+        <v>0</v>
+      </c>
+      <c r="G5" s="60">
+        <v>0</v>
+      </c>
+      <c r="H5" s="60">
         <v>0</v>
       </c>
     </row>
@@ -54289,25 +54604,25 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="59">
-        <v>0</v>
-      </c>
-      <c r="C6" s="59">
-        <v>0</v>
-      </c>
-      <c r="D6" s="59">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9587</v>
-      </c>
-      <c r="F6" s="59">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="B6" s="64">
+        <v>0</v>
+      </c>
+      <c r="C6" s="64">
+        <v>0</v>
+      </c>
+      <c r="D6" s="64">
+        <v>0</v>
+      </c>
+      <c r="E6" s="60">
+        <v>0</v>
+      </c>
+      <c r="F6" s="64">
+        <v>0</v>
+      </c>
+      <c r="G6" s="60">
+        <v>0</v>
+      </c>
+      <c r="H6" s="60">
         <v>0</v>
       </c>
     </row>
@@ -54315,14 +54630,14 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="59">
-        <v>0</v>
-      </c>
-      <c r="C7" s="59">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59">
-        <v>0</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
       </c>
       <c r="E7" s="59">
         <v>0</v>
@@ -54331,7 +54646,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>18152</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -54345,6 +54660,349 @@
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>11380.197</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9022563.2320000008</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4734830.5659999996</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>41.408000000000001</v>
+      </c>
+      <c r="H10" s="59">
+        <v>0</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="59">
+        <v>85</v>
+      </c>
+      <c r="C11" s="59">
+        <v>32117</v>
+      </c>
+      <c r="D11" s="59">
+        <v>2587286</v>
+      </c>
+      <c r="E11" s="59">
+        <v>9312751</v>
+      </c>
+      <c r="F11" s="59">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7434</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="59">
+        <v>0</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>936.50335700000005</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="59">
+        <v>0</v>
+      </c>
+      <c r="C13" s="59">
+        <v>0</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>28117.828402366868</v>
+      </c>
+      <c r="F13" s="59">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="59">
+        <v>0</v>
+      </c>
+      <c r="C14" s="59">
+        <v>0</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9587</v>
+      </c>
+      <c r="F14" s="59">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="59">
+        <v>0</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0</v>
+      </c>
+      <c r="F15" s="59">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="67">
+        <f>B2/SUM(2:2)</f>
+        <v>1.1330284622210088E-3</v>
+      </c>
+      <c r="C22" s="67">
+        <f t="shared" ref="C22:H22" si="0">C2/SUM(2:2)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="67">
+        <f t="shared" si="0"/>
+        <v>1.1248378950242305E-2</v>
+      </c>
+      <c r="E22" s="67">
+        <f t="shared" si="0"/>
+        <v>0.9876185925875367</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="67">
+        <f t="shared" ref="B23:H23" si="1">B3/SUM(3:3)</f>
+        <v>2.3118078337259736E-3</v>
+      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="67">
+        <f t="shared" si="1"/>
+        <v>1.6953257447323807E-3</v>
+      </c>
+      <c r="E23" s="67">
+        <f t="shared" si="1"/>
+        <v>0.99141328518901783</v>
+      </c>
+      <c r="F23" s="67">
+        <f t="shared" si="1"/>
+        <v>4.4034434928113786E-5</v>
+      </c>
+      <c r="G23" s="67">
+        <f t="shared" si="1"/>
+        <v>4.53554679759572E-3</v>
+      </c>
+      <c r="H23" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="67">
+        <f t="shared" ref="B27:H27" si="2">B7/SUM(7:7)</f>
+        <v>5.5056983978417663E-5</v>
+      </c>
+      <c r="C27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="67">
+        <f t="shared" si="2"/>
+        <v>5.5056983978417665E-4</v>
+      </c>
+      <c r="E27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="67">
+        <f t="shared" si="2"/>
+        <v>0.99939437317623736</v>
+      </c>
+      <c r="H27" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54355,7 +55013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -54567,8 +55225,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E14"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56355,9 +57013,9 @@
       <c r="C18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="66">
         <f>'SYVbT-freight'!E2/SUM('SYVbT-freight'!2:2)</f>
-        <v>0.34388074989867007</v>
+        <v>0.9876185925875367</v>
       </c>
       <c r="E18" s="40">
         <v>1</v>
@@ -56369,135 +57027,135 @@
       <c r="H18" s="49"/>
       <c r="I18" s="48">
         <f t="shared" si="3"/>
-        <v>0.34388074989867007</v>
+        <v>0.9876185925875367</v>
       </c>
       <c r="J18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,J$7))</f>
-        <v>0.3637631514168973</v>
+        <v>0.9879937867515507</v>
       </c>
       <c r="K18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,K$7))</f>
-        <v>0.38364555293512126</v>
+        <v>0.9883689809155648</v>
       </c>
       <c r="L18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,L$7))</f>
-        <v>0.40352795445333811</v>
+        <v>0.98874417507957879</v>
       </c>
       <c r="M18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,M$7))</f>
-        <v>0.42341035597156207</v>
+        <v>0.98911936924359289</v>
       </c>
       <c r="N18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,N$7))</f>
-        <v>0.44329275748978603</v>
+        <v>0.98949456340760689</v>
       </c>
       <c r="O18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,O$7))</f>
-        <v>0.46317515900800288</v>
+        <v>0.98986975757162088</v>
       </c>
       <c r="P18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,P$7))</f>
-        <v>0.48305756052622684</v>
+        <v>0.99024495173563498</v>
       </c>
       <c r="Q18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Q$7))</f>
-        <v>0.50293996204445079</v>
+        <v>0.99062014589964897</v>
       </c>
       <c r="R18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,R$7))</f>
-        <v>0.52282236356267475</v>
+        <v>0.99099534006366308</v>
       </c>
       <c r="S18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,S$7))</f>
-        <v>0.5427047650808916</v>
+        <v>0.99137053422767707</v>
       </c>
       <c r="T18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,T$7))</f>
-        <v>0.56258716659911556</v>
+        <v>0.99174572839169117</v>
       </c>
       <c r="U18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,U$7))</f>
-        <v>0.58246956811733952</v>
+        <v>0.99212092255570516</v>
       </c>
       <c r="V18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,V$7))</f>
-        <v>0.60235196963556348</v>
+        <v>0.99249611671971916</v>
       </c>
       <c r="W18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,W$7))</f>
-        <v>0.62223437115378033</v>
+        <v>0.99287131088373326</v>
       </c>
       <c r="X18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,X$7))</f>
-        <v>0.64211677267200429</v>
+        <v>0.99324650504774725</v>
       </c>
       <c r="Y18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Y$7))</f>
-        <v>0.66199917419022825</v>
+        <v>0.99362169921176136</v>
       </c>
       <c r="Z18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Z$7))</f>
-        <v>0.6818815757084522</v>
+        <v>0.99399689337577535</v>
       </c>
       <c r="AA18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AA$7))</f>
-        <v>0.70176397722666906</v>
+        <v>0.99437208753978934</v>
       </c>
       <c r="AB18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AB$7))</f>
-        <v>0.72164637874489301</v>
+        <v>0.99474728170380344</v>
       </c>
       <c r="AC18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AC$7))</f>
-        <v>0.74152878026311697</v>
+        <v>0.99512247586781744</v>
       </c>
       <c r="AD18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AD$7))</f>
-        <v>0.76141118178134093</v>
+        <v>0.99549767003183154</v>
       </c>
       <c r="AE18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AE$7))</f>
-        <v>0.78129358329955778</v>
+        <v>0.99587286419584553</v>
       </c>
       <c r="AF18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AF$7))</f>
-        <v>0.80117598481778174</v>
+        <v>0.99624805835985963</v>
       </c>
       <c r="AG18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AG$7))</f>
-        <v>0.8210583863360057</v>
+        <v>0.99662325252387363</v>
       </c>
       <c r="AH18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AH$7))</f>
-        <v>0.84094078785422965</v>
+        <v>0.99699844668788762</v>
       </c>
       <c r="AI18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AI$7))</f>
-        <v>0.86082318937244651</v>
+        <v>0.99737364085190172</v>
       </c>
       <c r="AJ18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AJ$7))</f>
-        <v>0.88070559089067046</v>
+        <v>0.99774883501591571</v>
       </c>
       <c r="AK18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AK$7))</f>
-        <v>0.90058799240889442</v>
+        <v>0.99812402917992982</v>
       </c>
       <c r="AL18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AL$7))</f>
-        <v>0.92047039392711838</v>
+        <v>0.99849922334394381</v>
       </c>
       <c r="AM18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AM$7))</f>
-        <v>0.94035279544533523</v>
+        <v>0.99887441750795791</v>
       </c>
       <c r="AN18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AN$7))</f>
-        <v>0.96023519696355919</v>
+        <v>0.9992496116719719</v>
       </c>
       <c r="AO18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AO$7))</f>
-        <v>0.98011759848178315</v>
+        <v>0.9996248058359859</v>
       </c>
       <c r="AP18" s="16">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AP$7))</f>
@@ -56662,9 +57320,9 @@
       <c r="C20" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="66">
         <f>'SYVbT-freight'!G2/SUM('SYVbT-freight'!2:2)</f>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="E20" s="48">
         <f>E13</f>
@@ -56677,135 +57335,135 @@
       <c r="H20" s="49"/>
       <c r="I20" s="48">
         <f t="shared" si="3"/>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,J$7))</f>
-        <v>2.9080305599685219E-5</v>
+        <v>2.6164062557273993E-5</v>
       </c>
       <c r="K20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,K$7))</f>
-        <v>5.5153235561884728E-5</v>
+        <v>5.2328125114547985E-5</v>
       </c>
       <c r="L20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,L$7))</f>
-        <v>8.1226165524084237E-5</v>
+        <v>7.8492187671828917E-5</v>
       </c>
       <c r="M20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,M$7))</f>
-        <v>1.0729909548628375E-4</v>
+        <v>1.0465625022910291E-4</v>
       </c>
       <c r="N20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,N$7))</f>
-        <v>1.3337202544848326E-4</v>
+        <v>1.308203127863769E-4</v>
       </c>
       <c r="O20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,O$7))</f>
-        <v>1.5944495541068276E-4</v>
+        <v>1.5698437534365089E-4</v>
       </c>
       <c r="P20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,P$7))</f>
-        <v>1.8551788537288227E-4</v>
+        <v>1.8314843790093183E-4</v>
       </c>
       <c r="Q20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Q$7))</f>
-        <v>2.1159081533508178E-4</v>
+        <v>2.0931250045820582E-4</v>
       </c>
       <c r="R20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,R$7))</f>
-        <v>2.3766374529728823E-4</v>
+        <v>2.3547656301547981E-4</v>
       </c>
       <c r="S20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,S$7))</f>
-        <v>2.6373667525948774E-4</v>
+        <v>2.616406255727538E-4</v>
       </c>
       <c r="T20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,T$7))</f>
-        <v>2.8980960522168725E-4</v>
+        <v>2.878046881300278E-4</v>
       </c>
       <c r="U20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,U$7))</f>
-        <v>3.1588253518388676E-4</v>
+        <v>3.1396875068730873E-4</v>
       </c>
       <c r="V20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,V$7))</f>
-        <v>3.4195546514608627E-4</v>
+        <v>3.4013281324458272E-4</v>
       </c>
       <c r="W20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,W$7))</f>
-        <v>3.6802839510828578E-4</v>
+        <v>3.6629687580185671E-4</v>
       </c>
       <c r="X20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,X$7))</f>
-        <v>3.9410132507048529E-4</v>
+        <v>3.9246093835913071E-4</v>
       </c>
       <c r="Y20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Y$7))</f>
-        <v>4.201742550326848E-4</v>
+        <v>4.1862500091641164E-4</v>
       </c>
       <c r="Z20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Z$7))</f>
-        <v>4.4624718499488431E-4</v>
+        <v>4.4478906347368563E-4</v>
       </c>
       <c r="AA20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AA$7))</f>
-        <v>4.7232011495709075E-4</v>
+        <v>4.7095312603095962E-4</v>
       </c>
       <c r="AB20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AB$7))</f>
-        <v>4.9839304491929026E-4</v>
+        <v>4.9711718858823362E-4</v>
       </c>
       <c r="AC20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AC$7))</f>
-        <v>5.2446597488148977E-4</v>
+        <v>5.2328125114551455E-4</v>
       </c>
       <c r="AD20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AD$7))</f>
-        <v>5.5053890484368928E-4</v>
+        <v>5.4944531370278854E-4</v>
       </c>
       <c r="AE20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AE$7))</f>
-        <v>5.7661183480588879E-4</v>
+        <v>5.7560937626006253E-4</v>
       </c>
       <c r="AF20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AF$7))</f>
-        <v>6.026847647680883E-4</v>
+        <v>6.0177343881733653E-4</v>
       </c>
       <c r="AG20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AG$7))</f>
-        <v>6.2875769473028781E-4</v>
+        <v>6.2793750137461052E-4</v>
       </c>
       <c r="AH20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AH$7))</f>
-        <v>6.5483062469248732E-4</v>
+        <v>6.5410156393189145E-4</v>
       </c>
       <c r="AI20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AI$7))</f>
-        <v>6.8090355465468683E-4</v>
+        <v>6.8026562648916544E-4</v>
       </c>
       <c r="AJ20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AJ$7))</f>
-        <v>7.0697648461689327E-4</v>
+        <v>7.0642968904643944E-4</v>
       </c>
       <c r="AK20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AK$7))</f>
-        <v>7.3304941457909278E-4</v>
+        <v>7.3259375160371343E-4</v>
       </c>
       <c r="AL20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AL$7))</f>
-        <v>7.5912234454129229E-4</v>
+        <v>7.5875781416099436E-4</v>
       </c>
       <c r="AM20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AM$7))</f>
-        <v>7.851952745034918E-4</v>
+        <v>7.8492187671826835E-4</v>
       </c>
       <c r="AN20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AN$7))</f>
-        <v>8.1126820446569131E-4</v>
+        <v>8.1108593927554234E-4</v>
       </c>
       <c r="AO20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AO$7))</f>
-        <v>8.3734113442789082E-4</v>
+        <v>8.3725000183281634E-4</v>
       </c>
       <c r="AP20" s="16">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AP$7))</f>
@@ -56818,7 +57476,7 @@
       <c r="C21" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="62">
         <f>'SYVbT-freight'!H2/SUM('SYVbT-freight'!2:2)</f>
         <v>0</v>
       </c>
@@ -56978,9 +57636,9 @@
       <c r="C22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="66">
         <f>'SYVbT-passenger'!B3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>3.010505804728952E-4</v>
+        <v>2.1128744483050054E-3</v>
       </c>
       <c r="E22" s="40">
         <f>E8</f>
@@ -56993,148 +57651,148 @@
       <c r="H22" s="49"/>
       <c r="I22" s="48">
         <f t="shared" ref="I22:I77" si="5">D22</f>
-        <v>3.010505804728952E-4</v>
+        <v>2.1128744483050054E-3</v>
       </c>
       <c r="J22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,J$7))</f>
-        <v>1.1284685585609511E-2</v>
+        <v>1.3076603048549013E-2</v>
       </c>
       <c r="K22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,K$7))</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.6855690467514894E-2</v>
       </c>
       <c r="L22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,L$7))</f>
-        <v>2.01353833789924E-2</v>
+        <v>2.1911260107350422E-2</v>
       </c>
       <c r="M22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,M$7))</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.8653671917040578E-2</v>
       </c>
       <c r="N22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,N$7))</f>
-        <v>3.5861531125930435E-2</v>
+        <v>3.7608906264031211E-2</v>
       </c>
       <c r="O22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,O$7))</f>
-        <v>4.7712646171390136E-2</v>
+        <v>4.943854271024635E-2</v>
       </c>
       <c r="P22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,P$7))</f>
-        <v>6.3255448472074108E-2</v>
+        <v>6.4953175710364672E-2</v>
       </c>
       <c r="Q22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Q$7))</f>
-        <v>8.3448707885836276E-2</v>
+        <v>8.5109837477008746E-2</v>
       </c>
       <c r="R22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,R$7))</f>
-        <v>0.10936502811473713</v>
+        <v>0.11097918775802242</v>
       </c>
       <c r="S22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,S$7))</f>
-        <v>0.14210941113553172</v>
+        <v>0.14366422585829974</v>
       </c>
       <c r="T22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,T$7))</f>
-        <v>0.18267165507699426</v>
+        <v>0.18415295602669227</v>
       </c>
       <c r="U22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,U$7))</f>
-        <v>0.23170658133316255</v>
+        <v>0.23309901287892659</v>
       </c>
       <c r="V22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,V$7))</f>
-        <v>0.28926452913544826</v>
+        <v>0.29055264441312756</v>
       </c>
       <c r="W22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,W$7))</f>
-        <v>0.3545380689799798</v>
+        <v>0.35570788448601598</v>
       </c>
       <c r="X22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,X$7))</f>
-        <v>0.42573041944147549</v>
+        <v>0.42677120810413238</v>
       </c>
       <c r="Y22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Y$7))</f>
-        <v>0.5001505252902364</v>
+        <v>0.5010564372241525</v>
       </c>
       <c r="Z22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Z$7))</f>
-        <v>0.57457063113899742</v>
+        <v>0.57534166634417261</v>
       </c>
       <c r="AA22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AA$7))</f>
-        <v>0.64576298160049306</v>
+        <v>0.6464049899622889</v>
       </c>
       <c r="AB22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AB$7))</f>
-        <v>0.71103652144502461</v>
+        <v>0.71156023003517743</v>
       </c>
       <c r="AC22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AC$7))</f>
-        <v>0.76859446924731034</v>
+        <v>0.76901386156937834</v>
       </c>
       <c r="AD22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AD$7))</f>
-        <v>0.81762939550347857</v>
+        <v>0.81795991842161275</v>
       </c>
       <c r="AE22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AE$7))</f>
-        <v>0.85819163944494126</v>
+        <v>0.85844864859000536</v>
       </c>
       <c r="AF22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AF$7))</f>
-        <v>0.89093602246573578</v>
+        <v>0.89113368669028259</v>
       </c>
       <c r="AG22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AG$7))</f>
-        <v>0.91685234269463667</v>
+        <v>0.91700303697129626</v>
       </c>
       <c r="AH22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AH$7))</f>
-        <v>0.93704560210839882</v>
+        <v>0.93715969873794036</v>
       </c>
       <c r="AI22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AI$7))</f>
-        <v>0.95258840440908288</v>
+        <v>0.95267433173805871</v>
       </c>
       <c r="AJ22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AJ$7))</f>
-        <v>0.96443951945454254</v>
+        <v>0.96450396818427386</v>
       </c>
       <c r="AK22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AK$7))</f>
-        <v>0.97341101346348924</v>
+        <v>0.97345920253126439</v>
       </c>
       <c r="AL22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AL$7))</f>
-        <v>0.98016566720148057</v>
+        <v>0.98020161434095465</v>
       </c>
       <c r="AM22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AM$7))</f>
-        <v>0.98523041603754413</v>
+        <v>0.9852571839807901</v>
       </c>
       <c r="AN22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AN$7))</f>
-        <v>0.98901636499486345</v>
+        <v>0.98903627139975603</v>
       </c>
       <c r="AO22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AO$7))</f>
-        <v>0.99183988619362395</v>
+        <v>0.99185467533486205</v>
       </c>
       <c r="AP22" s="16">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AP$7))</f>
-        <v>0.99394202281517241</v>
+        <v>0.99395300210814919</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="66">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="48">
         <f>E30</f>
@@ -57147,148 +57805,148 @@
       <c r="H23" s="49"/>
       <c r="I23" s="48">
         <f t="shared" si="5"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,J$7))</f>
-        <v>9.9246334655016352E-2</v>
+        <v>1.3080384862445467E-3</v>
       </c>
       <c r="K23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,K$7))</f>
-        <v>9.9322181029181764E-2</v>
+        <v>1.7589062491313377E-3</v>
       </c>
       <c r="L23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,L$7))</f>
-        <v>9.9423646431807233E-2</v>
+        <v>2.362065986106875E-3</v>
       </c>
       <c r="M23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,M$7))</f>
-        <v>9.9558966796805551E-2</v>
+        <v>3.1664760968230584E-3</v>
       </c>
       <c r="N23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,N$7))</f>
-        <v>9.9738698562631345E-2</v>
+        <v>4.2348891893308474E-3</v>
       </c>
       <c r="O23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,O$7))</f>
-        <v>9.9976119646789763E-2</v>
+        <v>5.6462356677165126E-3</v>
       </c>
       <c r="P23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,P$7))</f>
-        <v>0.10028749869921928</v>
+        <v>7.4972243052556431E-3</v>
       </c>
       <c r="Q23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Q$7))</f>
-        <v>0.10069204337913483</v>
+        <v>9.9020347767951929E-3</v>
       </c>
       <c r="R23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,R$7))</f>
-        <v>0.10121124185307927</v>
+        <v>1.2988403202674867E-2</v>
       </c>
       <c r="S23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,S$7))</f>
-        <v>0.10186723134327279</v>
+        <v>1.6887924006079337E-2</v>
       </c>
       <c r="T23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,T$7))</f>
-        <v>0.10267984111843231</v>
+        <v>2.1718472011276163E-2</v>
       </c>
       <c r="U23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,U$7))</f>
-        <v>0.10366218964080433</v>
+        <v>2.7558029742686188E-2</v>
       </c>
       <c r="V23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,V$7))</f>
-        <v>0.10481528538890343</v>
+        <v>3.4412592087432269E-2</v>
       </c>
       <c r="W23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,W$7))</f>
-        <v>0.10612295260311078</v>
+        <v>4.218600245750876E-2</v>
       </c>
       <c r="X23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,X$7))</f>
-        <v>0.10754919519425249</v>
+        <v>5.0664282579371549E-2</v>
       </c>
       <c r="Y23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Y$7))</f>
-        <v>0.10904010150526387</v>
+        <v>5.9526955324327849E-2</v>
       </c>
       <c r="Z23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Z$7))</f>
-        <v>0.11053100781627526</v>
+        <v>6.8389628069284156E-2</v>
       </c>
       <c r="AA23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AA$7))</f>
-        <v>0.11195725040741697</v>
+        <v>7.686790819114693E-2</v>
       </c>
       <c r="AB23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AB$7))</f>
-        <v>0.11326491762162431</v>
+        <v>8.4641318561223422E-2</v>
       </c>
       <c r="AC23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AC$7))</f>
-        <v>0.11441801336972342</v>
+        <v>9.1495880905969509E-2</v>
       </c>
       <c r="AD23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AD$7))</f>
-        <v>0.11540036189209543</v>
+        <v>9.7335438637379534E-2</v>
       </c>
       <c r="AE23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AE$7))</f>
-        <v>0.11621297166725496</v>
+        <v>0.10216598664257637</v>
       </c>
       <c r="AF23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AF$7))</f>
-        <v>0.11686896115744848</v>
+        <v>0.10606550744598084</v>
       </c>
       <c r="AG23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AG$7))</f>
-        <v>0.11738815963139292</v>
+        <v>0.10915187587186051</v>
       </c>
       <c r="AH23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AH$7))</f>
-        <v>0.11779270431130845</v>
+        <v>0.11155668634340006</v>
       </c>
       <c r="AI23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AI$7))</f>
-        <v>0.11810408336373798</v>
+        <v>0.11340767498093919</v>
       </c>
       <c r="AJ23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AJ$7))</f>
-        <v>0.1183415044478964</v>
+        <v>0.11481902145932485</v>
       </c>
       <c r="AK23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AK$7))</f>
-        <v>0.11852123621372219</v>
+        <v>0.11588743455183263</v>
       </c>
       <c r="AL23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AL$7))</f>
-        <v>0.11865655657872051</v>
+        <v>0.11669184466254882</v>
       </c>
       <c r="AM23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AM$7))</f>
-        <v>0.11875802198134598</v>
+        <v>0.11729500439952437</v>
       </c>
       <c r="AN23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AN$7))</f>
-        <v>0.11883386835551138</v>
+        <v>0.11774587216241116</v>
       </c>
       <c r="AO23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AO$7))</f>
-        <v>0.1188904337893615</v>
+        <v>0.11808212463192411</v>
       </c>
       <c r="AP23" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AP$7))</f>
-        <v>0.11893254725748857</v>
+        <v>0.11833246758332804</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="66">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="48">
         <f>E31</f>
@@ -57301,139 +57959,139 @@
       <c r="H24" s="49"/>
       <c r="I24" s="48">
         <f t="shared" si="5"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,J$7))</f>
-        <v>0.10214288480576172</v>
+        <v>6.117389182128008E-3</v>
       </c>
       <c r="K24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,K$7))</f>
-        <v>0.10525947724965157</v>
+        <v>1.2234778364256016E-2</v>
       </c>
       <c r="L24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,L$7))</f>
-        <v>0.10837606969354141</v>
+        <v>1.8352167546384024E-2</v>
       </c>
       <c r="M24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,M$7))</f>
-        <v>0.11149266213743037</v>
+        <v>2.4469556728512032E-2</v>
       </c>
       <c r="N24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,N$7))</f>
-        <v>0.11460925458132021</v>
+        <v>3.0586945910641816E-2</v>
       </c>
       <c r="O24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,O$7))</f>
-        <v>0.11772584702521005</v>
+        <v>3.6704335092769824E-2</v>
       </c>
       <c r="P24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,P$7))</f>
-        <v>0.12084243946909989</v>
+        <v>4.2821724274897832E-2</v>
       </c>
       <c r="Q24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Q$7))</f>
-        <v>0.12395903191298885</v>
+        <v>4.893911345702584E-2</v>
       </c>
       <c r="R24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,R$7))</f>
-        <v>0.12707562435687869</v>
+        <v>5.5056502639153848E-2</v>
       </c>
       <c r="S24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,S$7))</f>
-        <v>0.13019221680076853</v>
+        <v>6.1173891821281856E-2</v>
       </c>
       <c r="T24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,T$7))</f>
-        <v>0.13330880924465838</v>
+        <v>6.7291281003409864E-2</v>
       </c>
       <c r="U24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,U$7))</f>
-        <v>0.13642540168854822</v>
+        <v>7.3408670185537872E-2</v>
       </c>
       <c r="V24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,V$7))</f>
-        <v>0.13954199413243717</v>
+        <v>7.952605936766588E-2</v>
       </c>
       <c r="W24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,W$7))</f>
-        <v>0.14265858657632702</v>
+        <v>8.5643448549793888E-2</v>
       </c>
       <c r="X24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,X$7))</f>
-        <v>0.14577517902021686</v>
+        <v>9.1760837731921896E-2</v>
       </c>
       <c r="Y24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Y$7))</f>
-        <v>0.1488917714641067</v>
+        <v>9.787822691405168E-2</v>
       </c>
       <c r="Z24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Z$7))</f>
-        <v>0.15200836390799566</v>
+        <v>0.10399561609617969</v>
       </c>
       <c r="AA24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AA$7))</f>
-        <v>0.1551249563518855</v>
+        <v>0.1101130052783077</v>
       </c>
       <c r="AB24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AB$7))</f>
-        <v>0.15824154879577534</v>
+        <v>0.1162303944604357</v>
       </c>
       <c r="AC24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AC$7))</f>
-        <v>0.16135814123966519</v>
+        <v>0.12234778364256371</v>
       </c>
       <c r="AD24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AD$7))</f>
-        <v>0.16447473368355414</v>
+        <v>0.12846517282469172</v>
       </c>
       <c r="AE24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AE$7))</f>
-        <v>0.16759132612744398</v>
+        <v>0.13458256200681973</v>
       </c>
       <c r="AF24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AF$7))</f>
-        <v>0.17070791857133383</v>
+        <v>0.14069995118894774</v>
       </c>
       <c r="AG24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AG$7))</f>
-        <v>0.17382451101522367</v>
+        <v>0.14681734037107574</v>
       </c>
       <c r="AH24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AH$7))</f>
-        <v>0.17694110345911263</v>
+        <v>0.15293472955320375</v>
       </c>
       <c r="AI24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AI$7))</f>
-        <v>0.18005769590300247</v>
+        <v>0.15905211873533354</v>
       </c>
       <c r="AJ24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AJ$7))</f>
-        <v>0.18317428834689231</v>
+        <v>0.16516950791746154</v>
       </c>
       <c r="AK24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AK$7))</f>
-        <v>0.18629088079078215</v>
+        <v>0.17128689709958955</v>
       </c>
       <c r="AL24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AL$7))</f>
-        <v>0.18940747323467111</v>
+        <v>0.17740428628171756</v>
       </c>
       <c r="AM24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AM$7))</f>
-        <v>0.19252406567856095</v>
+        <v>0.18352167546384557</v>
       </c>
       <c r="AN24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AN$7))</f>
-        <v>0.19564065812245079</v>
+        <v>0.18963906464597358</v>
       </c>
       <c r="AO24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AO$7))</f>
-        <v>0.19875725056634064</v>
+        <v>0.19575645382810158</v>
       </c>
       <c r="AP24" s="16">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AP$7))</f>
-        <v>0.20187384301023048</v>
+        <v>0.20187384301022959</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
@@ -57592,7 +58250,7 @@
       <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="66">
         <f>'SYVbT-passenger'!F3/SUM('SYVbT-passenger'!3:3)</f>
         <v>0</v>
       </c>
@@ -57746,13 +58404,13 @@
       <c r="C27" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="66">
         <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>6.6456453869682547E-3</v>
+        <v>0.20278899427176261</v>
       </c>
       <c r="E27" s="48">
         <f>E34*($D$27/$D$34)</f>
-        <v>7.1392728527268468E-2</v>
+        <v>0.29906230067837791</v>
       </c>
       <c r="F27" s="9" t="str">
         <f>IF(D27=E27,"n/a",IF(OR(C27="battery electric vehicle",C27="natural gas vehicle",C27="plugin hybrid vehicle",C27="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -57761,139 +58419,139 @@
       <c r="H27" s="49"/>
       <c r="I27" s="48">
         <f>D27</f>
-        <v>6.6456453869682547E-3</v>
+        <v>0.20278899427176261</v>
       </c>
       <c r="J27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,J$7))</f>
-        <v>8.6076782094015591E-3</v>
+        <v>0.20570636719317559</v>
       </c>
       <c r="K27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,K$7))</f>
-        <v>1.0569711031835016E-2</v>
+        <v>0.20862374011458851</v>
       </c>
       <c r="L27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,L$7))</f>
-        <v>1.2531743854268029E-2</v>
+        <v>0.21154111303600143</v>
       </c>
       <c r="M27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,M$7))</f>
-        <v>1.4493776676701486E-2</v>
+        <v>0.21445848595741346</v>
       </c>
       <c r="N27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,N$7))</f>
-        <v>1.6455809499134944E-2</v>
+        <v>0.21737585887882638</v>
       </c>
       <c r="O27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,O$7))</f>
-        <v>1.8417842321568401E-2</v>
+        <v>0.22029323180023841</v>
       </c>
       <c r="P27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,P$7))</f>
-        <v>2.0379875144001414E-2</v>
+        <v>0.22321060472165133</v>
       </c>
       <c r="Q27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,Q$7))</f>
-        <v>2.2341907966434871E-2</v>
+        <v>0.22612797764306425</v>
       </c>
       <c r="R27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,R$7))</f>
-        <v>2.4303940788868328E-2</v>
+        <v>0.22904535056447628</v>
       </c>
       <c r="S27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,S$7))</f>
-        <v>2.6265973611301785E-2</v>
+        <v>0.2319627234858892</v>
       </c>
       <c r="T27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,T$7))</f>
-        <v>2.8228006433734798E-2</v>
+        <v>0.23488009640730212</v>
       </c>
       <c r="U27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,U$7))</f>
-        <v>3.0190039256168255E-2</v>
+        <v>0.23779746932871415</v>
       </c>
       <c r="V27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,V$7))</f>
-        <v>3.2152072078601712E-2</v>
+        <v>0.24071484225012707</v>
       </c>
       <c r="W27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,W$7))</f>
-        <v>3.4114104901034725E-2</v>
+        <v>0.2436322151715391</v>
       </c>
       <c r="X27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,X$7))</f>
-        <v>3.6076137723468182E-2</v>
+        <v>0.24654958809295202</v>
       </c>
       <c r="Y27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,Y$7))</f>
-        <v>3.8038170545901639E-2</v>
+        <v>0.24946696101436494</v>
       </c>
       <c r="Z27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,Z$7))</f>
-        <v>4.0000203368335097E-2</v>
+        <v>0.25238433393577697</v>
       </c>
       <c r="AA27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AA$7))</f>
-        <v>4.196223619076811E-2</v>
+        <v>0.25530170685718989</v>
       </c>
       <c r="AB27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AB$7))</f>
-        <v>4.3924269013201567E-2</v>
+        <v>0.25821907977860281</v>
       </c>
       <c r="AC27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AC$7))</f>
-        <v>4.5886301835635024E-2</v>
+        <v>0.26113645270001484</v>
       </c>
       <c r="AD27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AD$7))</f>
-        <v>4.7848334658068481E-2</v>
+        <v>0.26405382562142776</v>
       </c>
       <c r="AE27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AE$7))</f>
-        <v>4.9810367480501494E-2</v>
+        <v>0.26697119854283979</v>
       </c>
       <c r="AF27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AF$7))</f>
-        <v>5.1772400302934951E-2</v>
+        <v>0.26988857146425271</v>
       </c>
       <c r="AG27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AG$7))</f>
-        <v>5.3734433125368408E-2</v>
+        <v>0.27280594438566563</v>
       </c>
       <c r="AH27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AH$7))</f>
-        <v>5.5696465947801865E-2</v>
+        <v>0.27572331730707766</v>
       </c>
       <c r="AI27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AI$7))</f>
-        <v>5.7658498770235322E-2</v>
+        <v>0.27864069022849058</v>
       </c>
       <c r="AJ27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AJ$7))</f>
-        <v>5.962053159266878E-2</v>
+        <v>0.2815580631499035</v>
       </c>
       <c r="AK27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AK$7))</f>
-        <v>6.1582564415101348E-2</v>
+        <v>0.28447543607131554</v>
       </c>
       <c r="AL27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AL$7))</f>
-        <v>6.3544597237534806E-2</v>
+        <v>0.28739280899272845</v>
       </c>
       <c r="AM27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AM$7))</f>
-        <v>6.5506630059968263E-2</v>
+        <v>0.29031018191414049</v>
       </c>
       <c r="AN27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AN$7))</f>
-        <v>6.746866288240172E-2</v>
+        <v>0.29322755483555341</v>
       </c>
       <c r="AO27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AO$7))</f>
-        <v>6.9430695704835177E-2</v>
+        <v>0.29614492775696633</v>
       </c>
       <c r="AP27" s="16">
         <f>IF($F27="s-curve",$D27+($E27-$D27)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D27:$E27,$D$7:$E$7,AP$7))</f>
-        <v>7.1392728527268634E-2</v>
+        <v>0.29906230067837836</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57902,13 +58560,13 @@
       <c r="C28" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="62">
         <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>6.1388648673957636E-5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="57">
         <f>E35*($D$27/$D$34)</f>
-        <v>0.14020329428478703</v>
+        <v>0.58730798803243811</v>
       </c>
       <c r="F28" s="10" t="str">
         <f>IF(D28=E28,"n/a",IF(OR(C28="battery electric vehicle",C28="natural gas vehicle",C28="plugin hybrid vehicle",C28="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -57917,139 +58575,139 @@
       <c r="H28" s="49"/>
       <c r="I28" s="48">
         <f>D28</f>
-        <v>6.1388648673957636E-5</v>
+        <v>0</v>
       </c>
       <c r="J28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,J$7))</f>
-        <v>1.6011197260399348E-3</v>
+        <v>6.4527191710015037E-3</v>
       </c>
       <c r="K28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,K$7))</f>
-        <v>2.1318496040975739E-3</v>
+        <v>8.676906828903673E-3</v>
       </c>
       <c r="L28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,L$7))</f>
-        <v>2.8418469026506811E-3</v>
+        <v>1.1652370042629506E-2</v>
       </c>
       <c r="M28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,M$7))</f>
-        <v>3.7887420127273989E-3</v>
+        <v>1.562062678534077E-2</v>
       </c>
       <c r="N28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,N$7))</f>
-        <v>5.0464028990840539E-3</v>
+        <v>2.0891243603632998E-2</v>
       </c>
       <c r="O28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,O$7))</f>
-        <v>6.7077408922347863E-3</v>
+        <v>2.785359415659832E-2</v>
       </c>
       <c r="P28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,P$7))</f>
-        <v>8.8865947708029105E-3</v>
+        <v>3.6984755045484971E-2</v>
       </c>
       <c r="Q28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,Q$7))</f>
-        <v>1.1717368832226299E-2</v>
+        <v>4.8847989037078168E-2</v>
       </c>
       <c r="R28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,R$7))</f>
-        <v>1.5350425069869443E-2</v>
+        <v>6.4073434557130077E-2</v>
       </c>
       <c r="S28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,S$7))</f>
-        <v>1.9940667200340271E-2</v>
+        <v>8.3310263526964301E-2</v>
       </c>
       <c r="T28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,T$7))</f>
-        <v>2.5626849191562846E-2</v>
+        <v>0.10713996735247479</v>
       </c>
       <c r="U28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,U$7))</f>
-        <v>3.250076659665347E-2</v>
+        <v>0.13594724368256497</v>
       </c>
       <c r="V28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,V$7))</f>
-        <v>4.0569476175872199E-2</v>
+        <v>0.16976166605308446</v>
       </c>
       <c r="W28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,W$7))</f>
-        <v>4.971978914433027E-2</v>
+        <v>0.20810888186251042</v>
       </c>
       <c r="X28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,X$7))</f>
-        <v>5.9699825300396213E-2</v>
+        <v>0.24993330924349266</v>
       </c>
       <c r="Y28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,Y$7))</f>
-        <v>7.0132341466730488E-2</v>
+        <v>0.29365399401621906</v>
       </c>
       <c r="Z28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,Z$7))</f>
-        <v>8.0564857633064771E-2</v>
+        <v>0.33737467878894545</v>
       </c>
       <c r="AA28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AA$7))</f>
-        <v>9.0544893789130693E-2</v>
+        <v>0.37919910616992764</v>
       </c>
       <c r="AB28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AB$7))</f>
-        <v>9.9695206757588764E-2</v>
+        <v>0.4175463219793536</v>
       </c>
       <c r="AC28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AC$7))</f>
-        <v>0.1077639163368075</v>
+        <v>0.45136074434987311</v>
       </c>
       <c r="AD28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AD$7))</f>
-        <v>0.11463783374189812</v>
+        <v>0.48016802067996328</v>
       </c>
       <c r="AE28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AE$7))</f>
-        <v>0.12032401573312072</v>
+        <v>0.50399772450547387</v>
       </c>
       <c r="AF28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AF$7))</f>
-        <v>0.12491425786359153</v>
+        <v>0.52323455347530801</v>
       </c>
       <c r="AG28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AG$7))</f>
-        <v>0.12854731410123471</v>
+        <v>0.53845999899536001</v>
       </c>
       <c r="AH28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AH$7))</f>
-        <v>0.13137808816265809</v>
+        <v>0.55032323298695318</v>
       </c>
       <c r="AI28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AI$7))</f>
-        <v>0.13355694204122623</v>
+        <v>0.55945439387583984</v>
       </c>
       <c r="AJ28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AJ$7))</f>
-        <v>0.13521828003437694</v>
+        <v>0.56641674442880507</v>
       </c>
       <c r="AK28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AK$7))</f>
-        <v>0.13647594092073359</v>
+        <v>0.57168736124709729</v>
       </c>
       <c r="AL28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AL$7))</f>
-        <v>0.13742283603081032</v>
+        <v>0.57565561798980869</v>
       </c>
       <c r="AM28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AM$7))</f>
-        <v>0.13813283332936341</v>
+        <v>0.57863108120353446</v>
       </c>
       <c r="AN28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AN$7))</f>
-        <v>0.13866356320742107</v>
+        <v>0.58085526886143668</v>
       </c>
       <c r="AO28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AO$7))</f>
-        <v>0.13905937600849283</v>
+        <v>0.5825140447913042</v>
       </c>
       <c r="AP28" s="16">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D28:$E28,$D$7:$E$7,AP$7))</f>
-        <v>0.13935406215597987</v>
+        <v>0.58374901821053982</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
@@ -58062,7 +58720,7 @@
       <c r="C29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="66">
         <f>SUM(INDEX('AEO 50'!$216:$216,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$227:$227,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$238:$238,MATCH(D$7,'AEO 50'!$1:$1,0)))/INDEX('AEO 50'!$243:$243,MATCH(D$7,'AEO 50'!$1:$1,0))</f>
         <v>0</v>
       </c>
@@ -58370,7 +59028,7 @@
       <c r="C31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="66">
         <f>SUM(INDEX('AEO 50'!$212:$212,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$223:$223,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$234:$234,MATCH(D$7,'AEO 50'!$1:$1,0)))/INDEX('AEO 50'!$243:$243,MATCH(D$7,'AEO 50'!$1:$1,0))</f>
         <v>0.16062618952794017</v>
       </c>
@@ -58524,7 +59182,7 @@
       <c r="C32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="63">
         <v>1</v>
       </c>
       <c r="E32" s="16">
@@ -58832,7 +59490,7 @@
       </c>
       <c r="D34" s="48">
         <f>'SYVbT-freight'!G3/SUM('SYVbT-freight'!3:3)</f>
-        <v>6.2263011725698016E-4</v>
+        <v>4.53554679759572E-3</v>
       </c>
       <c r="E34" s="48">
         <f>SUM(SUM(INDEX('AEO 50'!139:139,0,MATCH(E$7,'AEO 50'!$1:$1,0))),SUM(INDEX('AEO 50'!150:150,0,MATCH(E$7,'AEO 50'!$1:$1,0))),SUM(INDEX('AEO 50'!161:161,0,MATCH(E$7,'AEO 50'!$1:$1,0))))/INDEX('AEO 50'!$169:$169,MATCH(E$7,'AEO 50'!$1:$1,0))*Assumptions!A11</f>
@@ -58845,135 +59503,135 @@
       <c r="H34" s="49"/>
       <c r="I34" s="48">
         <f>D34</f>
-        <v>6.2263011725698016E-4</v>
+        <v>4.53554679759572E-3</v>
       </c>
       <c r="J34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,J$7))</f>
-        <v>8.0645285457742188E-4</v>
+        <v>4.6007963021786613E-3</v>
       </c>
       <c r="K34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,K$7))</f>
-        <v>9.9027559189790448E-4</v>
+        <v>4.6660458067616095E-3</v>
       </c>
       <c r="L34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,L$7))</f>
-        <v>1.1740983292183871E-3</v>
+        <v>4.73129531134453E-3</v>
       </c>
       <c r="M34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,M$7))</f>
-        <v>1.3579210665388697E-3</v>
+        <v>4.7965448159274782E-3</v>
       </c>
       <c r="N34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,N$7))</f>
-        <v>1.5417438038593523E-3</v>
+        <v>4.8617943205104264E-3</v>
       </c>
       <c r="O34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,O$7))</f>
-        <v>1.7255665411798349E-3</v>
+        <v>4.9270438250933746E-3</v>
       </c>
       <c r="P34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,P$7))</f>
-        <v>1.9093892785003175E-3</v>
+        <v>4.992293329676295E-3</v>
       </c>
       <c r="Q34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,Q$7))</f>
-        <v>2.0932120158208001E-3</v>
+        <v>5.0575428342592432E-3</v>
       </c>
       <c r="R34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,R$7))</f>
-        <v>2.2770347531412827E-3</v>
+        <v>5.1227923388421914E-3</v>
       </c>
       <c r="S34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,S$7))</f>
-        <v>2.4608574904617653E-3</v>
+        <v>5.1880418434251396E-3</v>
       </c>
       <c r="T34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,T$7))</f>
-        <v>2.6446802277822479E-3</v>
+        <v>5.2532913480080601E-3</v>
       </c>
       <c r="U34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,U$7))</f>
-        <v>2.828502965102675E-3</v>
+        <v>5.3185408525910083E-3</v>
       </c>
       <c r="V34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,V$7))</f>
-        <v>3.0123257024231576E-3</v>
+        <v>5.3837903571739565E-3</v>
       </c>
       <c r="W34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,W$7))</f>
-        <v>3.1961484397436402E-3</v>
+        <v>5.4490398617569047E-3</v>
       </c>
       <c r="X34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,X$7))</f>
-        <v>3.3799711770641228E-3</v>
+        <v>5.5142893663398251E-3</v>
       </c>
       <c r="Y34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,Y$7))</f>
-        <v>3.5637939143846054E-3</v>
+        <v>5.5795388709227733E-3</v>
       </c>
       <c r="Z34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,Z$7))</f>
-        <v>3.747616651705088E-3</v>
+        <v>5.6447883755057215E-3</v>
       </c>
       <c r="AA34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AA$7))</f>
-        <v>3.9314393890255706E-3</v>
+        <v>5.710037880088642E-3</v>
       </c>
       <c r="AB34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AB$7))</f>
-        <v>4.1152621263460532E-3</v>
+        <v>5.7752873846715902E-3</v>
       </c>
       <c r="AC34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AC$7))</f>
-        <v>4.2990848636665357E-3</v>
+        <v>5.8405368892545384E-3</v>
       </c>
       <c r="AD34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AD$7))</f>
-        <v>4.4829076009870183E-3</v>
+        <v>5.9057863938374866E-3</v>
       </c>
       <c r="AE34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AE$7))</f>
-        <v>4.6667303383075009E-3</v>
+        <v>5.9710358984204071E-3</v>
       </c>
       <c r="AF34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AF$7))</f>
-        <v>4.8505530756279835E-3</v>
+        <v>6.0362854030033553E-3</v>
       </c>
       <c r="AG34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AG$7))</f>
-        <v>5.0343758129484661E-3</v>
+        <v>6.1015349075863035E-3</v>
       </c>
       <c r="AH34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AH$7))</f>
-        <v>5.2181985502688932E-3</v>
+        <v>6.1667844121692517E-3</v>
       </c>
       <c r="AI34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AI$7))</f>
-        <v>5.4020212875893758E-3</v>
+        <v>6.2320339167521721E-3</v>
       </c>
       <c r="AJ34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AJ$7))</f>
-        <v>5.5858440249098584E-3</v>
+        <v>6.2972834213351203E-3</v>
       </c>
       <c r="AK34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AK$7))</f>
-        <v>5.769666762230341E-3</v>
+        <v>6.3625329259180685E-3</v>
       </c>
       <c r="AL34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AL$7))</f>
-        <v>5.9534894995508236E-3</v>
+        <v>6.4277824305010167E-3</v>
       </c>
       <c r="AM34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AM$7))</f>
-        <v>6.1373122368713062E-3</v>
+        <v>6.4930319350839372E-3</v>
       </c>
       <c r="AN34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AN$7))</f>
-        <v>6.3211349741917888E-3</v>
+        <v>6.5582814396668854E-3</v>
       </c>
       <c r="AO34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AO$7))</f>
-        <v>6.5049577115122714E-3</v>
+        <v>6.6235309442498336E-3</v>
       </c>
       <c r="AP34" s="16">
         <f>IF($F34="s-curve",$D34+($E34-$D34)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D34:$E34,$D$7:$E$7,AP$7))</f>
@@ -59604,10 +60262,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="9" t="str">
         <f t="shared" si="1"/>
@@ -59616,139 +60274,139 @@
       <c r="H39" s="49"/>
       <c r="I39" s="48">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,J$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,K$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,L$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,M$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,N$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,O$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,P$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,Q$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,R$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,S$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,T$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,U$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,V$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,W$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,X$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,Y$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,Z$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AA$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AB$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AC$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AD$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AE$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AF$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AG$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AH$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AI$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AJ$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AK$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AL$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AM$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AN$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AO$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="16">
         <f>IF($F39="s-curve",$D39+($E39-$D39)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D39:$E39,$D$7:$E$7,AP$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
@@ -61294,153 +61952,151 @@
         <v>2</v>
       </c>
       <c r="D50" s="48">
-        <f>'SYVbT-passenger'!B5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.5118281341400337</v>
+        <v>0</v>
       </c>
       <c r="E50" s="16">
-        <f>Assumptions!A28</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F50" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H50" s="49"/>
       <c r="I50" s="48">
         <f t="shared" si="5"/>
-        <v>0.5118281341400337</v>
+        <v>0</v>
       </c>
       <c r="J50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,J$7))</f>
-        <v>0.51444491476645848</v>
+        <v>0</v>
       </c>
       <c r="K50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,K$7))</f>
-        <v>0.51534689283469481</v>
+        <v>0</v>
       </c>
       <c r="L50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,L$7))</f>
-        <v>0.51655353677595117</v>
+        <v>0</v>
       </c>
       <c r="M50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,M$7))</f>
-        <v>0.51816278972650143</v>
+        <v>0</v>
       </c>
       <c r="N50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,N$7))</f>
-        <v>0.52030019065995547</v>
+        <v>0</v>
       </c>
       <c r="O50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,O$7))</f>
-        <v>0.52312364284477286</v>
+        <v>0</v>
       </c>
       <c r="P50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,P$7))</f>
-        <v>0.52682661585159252</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Q$7))</f>
-        <v>0.53163753045259587</v>
+        <v>0</v>
       </c>
       <c r="R50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,R$7))</f>
-        <v>0.53781192760358398</v>
+        <v>0</v>
       </c>
       <c r="S50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,S$7))</f>
-        <v>0.54561306694160605</v>
+        <v>0</v>
       </c>
       <c r="T50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,T$7))</f>
-        <v>0.55527676152547534</v>
+        <v>0</v>
       </c>
       <c r="U50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,U$7))</f>
-        <v>0.56695901835441231</v>
+        <v>0</v>
       </c>
       <c r="V50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,V$7))</f>
-        <v>0.58067183042758774</v>
+        <v>0</v>
       </c>
       <c r="W50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,W$7))</f>
-        <v>0.59622283284194855</v>
+        <v>0</v>
       </c>
       <c r="X50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,X$7))</f>
-        <v>0.61318395394167213</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Y$7))</f>
-        <v>0.63091406707001685</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Z$7))</f>
-        <v>0.64864418019836156</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AA$7))</f>
-        <v>0.66560530129808515</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AB$7))</f>
-        <v>0.68115630371244595</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AC$7))</f>
-        <v>0.69486911578562138</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AD$7))</f>
-        <v>0.70655137261455836</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AE$7))</f>
-        <v>0.71621506719842765</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AF$7))</f>
-        <v>0.72401620653644971</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AG$7))</f>
-        <v>0.73019060368743782</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AH$7))</f>
-        <v>0.73500151828844118</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AI$7))</f>
-        <v>0.73870449129526083</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AJ$7))</f>
-        <v>0.74152794348007822</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AK$7))</f>
-        <v>0.74366534441353227</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AL$7))</f>
-        <v>0.74527459736408264</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AM$7))</f>
-        <v>0.74648124130533888</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AN$7))</f>
-        <v>0.74738321937357521</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AO$7))</f>
-        <v>0.74805590519823717</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AP$7))</f>
-        <v>0.74855672577200838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
@@ -61752,153 +62408,151 @@
         <v>5</v>
       </c>
       <c r="D53" s="48">
-        <f>'SYVbT-passenger'!E5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="E53" s="16">
-        <f>Assumptions!A28</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F53" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H53" s="49"/>
       <c r="I53" s="48">
         <f t="shared" si="5"/>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="J53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,J$7))</f>
-        <v>0.49610605174299849</v>
+        <v>0</v>
       </c>
       <c r="K53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,K$7))</f>
-        <v>0.50404023762603245</v>
+        <v>0</v>
       </c>
       <c r="L53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,L$7))</f>
-        <v>0.51197442350906286</v>
+        <v>0</v>
       </c>
       <c r="M53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,M$7))</f>
-        <v>0.51990860939209327</v>
+        <v>0</v>
       </c>
       <c r="N53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,N$7))</f>
-        <v>0.52784279527512368</v>
+        <v>0</v>
       </c>
       <c r="O53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,O$7))</f>
-        <v>0.53577698115815764</v>
+        <v>0</v>
       </c>
       <c r="P53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,P$7))</f>
-        <v>0.54371116704118805</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Q$7))</f>
-        <v>0.55164535292421846</v>
+        <v>0</v>
       </c>
       <c r="R53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,R$7))</f>
-        <v>0.55957953880724887</v>
+        <v>0</v>
       </c>
       <c r="S53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,S$7))</f>
-        <v>0.56751372469028283</v>
+        <v>0</v>
       </c>
       <c r="T53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,T$7))</f>
-        <v>0.57544791057331324</v>
+        <v>0</v>
       </c>
       <c r="U53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,U$7))</f>
-        <v>0.58338209645634365</v>
+        <v>0</v>
       </c>
       <c r="V53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,V$7))</f>
-        <v>0.59131628233937406</v>
+        <v>0</v>
       </c>
       <c r="W53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,W$7))</f>
-        <v>0.59925046822240802</v>
+        <v>0</v>
       </c>
       <c r="X53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,X$7))</f>
-        <v>0.60718465410543843</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Y$7))</f>
-        <v>0.61511883998846884</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Z$7))</f>
-        <v>0.62305302587149924</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AA$7))</f>
-        <v>0.63098721175453321</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AB$7))</f>
-        <v>0.63892139763756362</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AC$7))</f>
-        <v>0.64685558352059402</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AD$7))</f>
-        <v>0.65478976940362443</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AE$7))</f>
-        <v>0.66272395528665839</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AF$7))</f>
-        <v>0.6706581411696888</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AG$7))</f>
-        <v>0.67859232705271921</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AH$7))</f>
-        <v>0.68652651293574962</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AI$7))</f>
-        <v>0.69446069881878358</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AJ$7))</f>
-        <v>0.70239488470181399</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AK$7))</f>
-        <v>0.7103290705848444</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AL$7))</f>
-        <v>0.71826325646787481</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AM$7))</f>
-        <v>0.72619744235090877</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AN$7))</f>
-        <v>0.73413162823393918</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AO$7))</f>
-        <v>0.74206581411696959</v>
+        <v>0</v>
       </c>
       <c r="AP53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AP$7))</f>
-        <v>0.75000000000000355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
@@ -63750,152 +64404,151 @@
         <v>4</v>
       </c>
       <c r="D66" s="16">
-        <f>'SYVbT-passenger'!D6/SUM('SYVbT-passenger'!B6:H6)</f>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="E66" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H66" s="49"/>
       <c r="I66" s="48">
         <f t="shared" si="5"/>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="J66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,J$7))</f>
-        <v>0.79437183853155346</v>
+        <v>0</v>
       </c>
       <c r="K66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,K$7))</f>
-        <v>0.8007977185774422</v>
+        <v>0</v>
       </c>
       <c r="L66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,L$7))</f>
-        <v>0.80722359862333093</v>
+        <v>0</v>
       </c>
       <c r="M66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,M$7))</f>
-        <v>0.81364947866921966</v>
+        <v>0</v>
       </c>
       <c r="N66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,N$7))</f>
-        <v>0.82007535871511017</v>
+        <v>0</v>
       </c>
       <c r="O66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,O$7))</f>
-        <v>0.8265012387609989</v>
+        <v>0</v>
       </c>
       <c r="P66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,P$7))</f>
-        <v>0.83292711880688763</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Q$7))</f>
-        <v>0.83935299885277637</v>
+        <v>0</v>
       </c>
       <c r="R66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,R$7))</f>
-        <v>0.8457788788986651</v>
+        <v>0</v>
       </c>
       <c r="S66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,S$7))</f>
-        <v>0.85220475894455383</v>
+        <v>0</v>
       </c>
       <c r="T66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,T$7))</f>
-        <v>0.85863063899044256</v>
+        <v>0</v>
       </c>
       <c r="U66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,U$7))</f>
-        <v>0.8650565190363313</v>
+        <v>0</v>
       </c>
       <c r="V66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,V$7))</f>
-        <v>0.8714823990822218</v>
+        <v>0</v>
       </c>
       <c r="W66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,W$7))</f>
-        <v>0.87790827912811054</v>
+        <v>0</v>
       </c>
       <c r="X66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,X$7))</f>
-        <v>0.88433415917399927</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Y$7))</f>
-        <v>0.890760039219888</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Z$7))</f>
-        <v>0.89718591926577673</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AA$7))</f>
-        <v>0.90361179931166546</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AB$7))</f>
-        <v>0.9100376793575542</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AC$7))</f>
-        <v>0.91646355940344471</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AD$7))</f>
-        <v>0.92288943944933344</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AE$7))</f>
-        <v>0.92931531949522217</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AF$7))</f>
-        <v>0.9357411995411109</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AG$7))</f>
-        <v>0.94216707958699963</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AH$7))</f>
-        <v>0.94859295963288837</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AI$7))</f>
-        <v>0.9550188396787771</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AJ$7))</f>
-        <v>0.96144471972466583</v>
+        <v>0</v>
       </c>
       <c r="AK66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AK$7))</f>
-        <v>0.96787059977055634</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AL$7))</f>
-        <v>0.97429647981644507</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AM$7))</f>
-        <v>0.9807223598623338</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AN$7))</f>
-        <v>0.98714823990822254</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AO$7))</f>
-        <v>0.99357411995411127</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="16">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AP$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
@@ -63903,152 +64556,151 @@
         <v>5</v>
       </c>
       <c r="D67" s="16">
-        <f>'SYVbT-passenger'!E6/SUM('SYVbT-passenger'!B6:H6)</f>
-        <v>0.21205404151433599</v>
+        <v>0</v>
       </c>
       <c r="E67" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H67" s="49"/>
       <c r="I67" s="48">
         <f t="shared" si="5"/>
-        <v>0.21205404151433599</v>
+        <v>0</v>
       </c>
       <c r="J67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,J$7))</f>
-        <v>0.2359311917714777</v>
+        <v>0</v>
       </c>
       <c r="K67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,K$7))</f>
-        <v>0.25980834202861303</v>
+        <v>0</v>
       </c>
       <c r="L67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,L$7))</f>
-        <v>0.28368549228575546</v>
+        <v>0</v>
       </c>
       <c r="M67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,M$7))</f>
-        <v>0.30756264254289789</v>
+        <v>0</v>
       </c>
       <c r="N67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,N$7))</f>
-        <v>0.33143979280004032</v>
+        <v>0</v>
       </c>
       <c r="O67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,O$7))</f>
-        <v>0.35531694305718275</v>
+        <v>0</v>
       </c>
       <c r="P67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,P$7))</f>
-        <v>0.37919409331432519</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Q$7))</f>
-        <v>0.40307124357146762</v>
+        <v>0</v>
       </c>
       <c r="R67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,R$7))</f>
-        <v>0.42694839382860295</v>
+        <v>0</v>
       </c>
       <c r="S67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,S$7))</f>
-        <v>0.45082554408574538</v>
+        <v>0</v>
       </c>
       <c r="T67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,T$7))</f>
-        <v>0.47470269434288781</v>
+        <v>0</v>
       </c>
       <c r="U67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,U$7))</f>
-        <v>0.49857984460003024</v>
+        <v>0</v>
       </c>
       <c r="V67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,V$7))</f>
-        <v>0.52245699485717267</v>
+        <v>0</v>
       </c>
       <c r="W67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,W$7))</f>
-        <v>0.54633414511431511</v>
+        <v>0</v>
       </c>
       <c r="X67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,X$7))</f>
-        <v>0.57021129537145043</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Y$7))</f>
-        <v>0.59408844562859286</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Z$7))</f>
-        <v>0.6179655958857353</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AA$7))</f>
-        <v>0.64184274614287773</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AB$7))</f>
-        <v>0.66571989640002016</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AC$7))</f>
-        <v>0.68959704665716259</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AD$7))</f>
-        <v>0.71347419691430503</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AE$7))</f>
-        <v>0.73735134717144035</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AF$7))</f>
-        <v>0.76122849742858278</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AG$7))</f>
-        <v>0.78510564768572522</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AH$7))</f>
-        <v>0.80898279794286765</v>
+        <v>0</v>
       </c>
       <c r="AI67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AI$7))</f>
-        <v>0.83285994820001008</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AJ$7))</f>
-        <v>0.85673709845715251</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AK$7))</f>
-        <v>0.88061424871428784</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AL$7))</f>
-        <v>0.90449139897143027</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AM$7))</f>
-        <v>0.9283685492285727</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AN$7))</f>
-        <v>0.95224569948571514</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AO$7))</f>
-        <v>0.97612284974285757</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="16">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AP$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
@@ -65591,9 +66243,9 @@
       <c r="C78" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="66">
         <f>'SYVbT-passenger'!B7/SUM('SYVbT-passenger'!7:7)</f>
-        <v>0</v>
+        <v>5.701180403488086E-4</v>
       </c>
       <c r="E78" s="52">
         <v>1</v>
@@ -65605,146 +66257,146 @@
       <c r="H78" s="49"/>
       <c r="I78" s="48">
         <f t="shared" ref="I78:I91" si="12">D78</f>
-        <v>0</v>
+        <v>5.701180403488086E-4</v>
       </c>
       <c r="J78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,J$7))</f>
-        <v>1.098694263059318E-2</v>
+        <v>1.1550796816740011E-2</v>
       </c>
       <c r="K78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,K$7))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1.5335726791624845E-2</v>
       </c>
       <c r="L78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,L$7))</f>
-        <v>1.984030573407751E-2</v>
+        <v>2.0399112458201286E-2</v>
       </c>
       <c r="M78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,M$7))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>2.7151948191357463E-2</v>
       </c>
       <c r="N78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,N$7))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>3.6121027536263998E-2</v>
       </c>
       <c r="O78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,O$7))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>4.7968952872037764E-2</v>
       </c>
       <c r="P78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,P$7))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>6.3507571850995911E-2</v>
       </c>
       <c r="Q78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Q$7))</f>
-        <v>8.317269649392238E-2</v>
+        <v>8.3695396279535539E-2</v>
       </c>
       <c r="R78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,R$7))</f>
-        <v>0.10909682119561293</v>
+        <v>0.10960474117005339</v>
       </c>
       <c r="S78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,S$7))</f>
-        <v>0.14185106490048782</v>
+        <v>0.14234031108969417</v>
       </c>
       <c r="T78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,T$7))</f>
-        <v>0.18242552380635635</v>
+        <v>0.18289163776456308</v>
       </c>
       <c r="U78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,U$7))</f>
-        <v>0.23147521650098238</v>
+        <v>0.23191336634451035</v>
       </c>
       <c r="V78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,V$7))</f>
-        <v>0.28905049737499605</v>
+        <v>0.28945582251221957</v>
       </c>
       <c r="W78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,W$7))</f>
-        <v>0.35434369377420455</v>
+        <v>0.35471179408224884</v>
       </c>
       <c r="X78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,X$7))</f>
-        <v>0.42555748318834102</v>
+        <v>0.4258849832303187</v>
       </c>
       <c r="Y78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Y$7))</f>
-        <v>0.5</v>
+        <v>0.50028505902017439</v>
       </c>
       <c r="Z78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Z$7))</f>
-        <v>0.57444251681165903</v>
+        <v>0.57468513481003014</v>
       </c>
       <c r="AA78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AA$7))</f>
-        <v>0.6456563062257954</v>
+        <v>0.64585832395809994</v>
       </c>
       <c r="AB78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AB$7))</f>
-        <v>0.71094950262500389</v>
+        <v>0.71111429552812921</v>
       </c>
       <c r="AC78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AC$7))</f>
-        <v>0.76852478349901754</v>
+        <v>0.76865675169583847</v>
       </c>
       <c r="AD78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AD$7))</f>
-        <v>0.81757447619364365</v>
+        <v>0.81767848027578571</v>
       </c>
       <c r="AE78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AE$7))</f>
-        <v>0.85814893509951229</v>
+        <v>0.85822980695065476</v>
       </c>
       <c r="AF78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AF$7))</f>
-        <v>0.89090317880438707</v>
+        <v>0.89096537687029542</v>
       </c>
       <c r="AG78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AG$7))</f>
-        <v>0.91682730350607766</v>
+        <v>0.9168747217608133</v>
       </c>
       <c r="AH78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AH$7))</f>
-        <v>0.9370266439430035</v>
+        <v>0.93706254618935292</v>
       </c>
       <c r="AI78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AI$7))</f>
-        <v>0.95257412682243336</v>
+        <v>0.95260116516831117</v>
       </c>
       <c r="AJ78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AJ$7))</f>
-        <v>0.96442881072736386</v>
+        <v>0.96444909050408489</v>
       </c>
       <c r="AK78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AK$7))</f>
-        <v>0.97340300642313404</v>
+        <v>0.97341816984899132</v>
       </c>
       <c r="AL78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AL$7))</f>
-        <v>0.98015969426592253</v>
+        <v>0.98017100558214754</v>
       </c>
       <c r="AM78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AM$7))</f>
-        <v>0.98522596830672693</v>
+        <v>0.98523439124872392</v>
       </c>
       <c r="AN78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AN$7))</f>
-        <v>0.98901305736940681</v>
+        <v>0.9890193212236088</v>
       </c>
       <c r="AO78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AO$7))</f>
-        <v>0.99183742884684012</v>
+        <v>0.99184208247591021</v>
       </c>
       <c r="AP78" s="16">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AP$7))</f>
-        <v>0.99394019850841575</v>
+        <v>0.99394365331056711</v>
       </c>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C79" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="66">
         <f>'SYVbT-passenger'!C7/SUM('SYVbT-passenger'!7:7)</f>
         <v>0</v>
       </c>
@@ -66049,7 +66701,7 @@
       <c r="C81" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="66">
         <f>'SYVbT-passenger'!E7/SUM('SYVbT-passenger'!7:7)</f>
         <v>0</v>
       </c>
@@ -66202,7 +66854,7 @@
       <c r="C82" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="66">
         <f>'SYVbT-passenger'!F7/SUM('SYVbT-passenger'!7:7)</f>
         <v>0</v>
       </c>
@@ -66355,7 +67007,7 @@
       <c r="C83" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="66">
         <f>'SYVbT-passenger'!G7/SUM('SYVbT-passenger'!7:7)</f>
         <v>0</v>
       </c>
@@ -66510,7 +67162,7 @@
       <c r="C84" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="D84" s="57">
+      <c r="D84" s="62">
         <f>'SYVbT-passenger'!H7/SUM('SYVbT-passenger'!7:7)</f>
         <v>0</v>
       </c>
@@ -66659,7 +67311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="50" t="s">
         <v>18</v>
       </c>
@@ -66669,152 +67321,153 @@
       <c r="C85" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="16">
-        <v>0</v>
-      </c>
-      <c r="E85" s="16">
-        <v>0</v>
+      <c r="D85" s="62">
+        <f>'SYVbT-freight'!B7/SUM('SYVbT-freight'!7:7)</f>
+        <v>5.5056983978417663E-5</v>
+      </c>
+      <c r="E85" s="69">
+        <v>1</v>
       </c>
       <c r="F85" s="9" t="str">
         <f t="shared" ref="F85:F89" si="14">IF(D85=E85,"n/a",IF(OR(C85="battery electric vehicle",C85="natural gas vehicle",C85="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>n/a</v>
+        <v>s-curve</v>
       </c>
       <c r="H85" s="49"/>
       <c r="I85" s="48">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.5056983978417663E-5</v>
       </c>
       <c r="J85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>1.1041394706647212E-2</v>
       </c>
       <c r="K85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>1.4828275263625238E-2</v>
       </c>
       <c r="L85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>1.9894270370660997E-2</v>
       </c>
       <c r="M85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>2.6650586210595045E-2</v>
       </c>
       <c r="N85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>3.5624287814216719E-2</v>
       </c>
       <c r="O85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>4.7478319036005495E-2</v>
       </c>
       <c r="P85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>6.3024945917919434E-2</v>
       </c>
       <c r="Q85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>8.3223174240082493E-2</v>
       </c>
       <c r="R85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>0.10914587163765467</v>
       </c>
       <c r="S85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>0.14189831199265868</v>
       </c>
       <c r="T85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>0.18247053699119331</v>
       </c>
       <c r="U85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>0.23151752915767448</v>
       </c>
       <c r="V85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>0.28908964011037153</v>
       </c>
       <c r="W85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>0.35437924166311191</v>
       </c>
       <c r="X85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>0.42558911026078561</v>
       </c>
       <c r="Y85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>0.50002752849198917</v>
       </c>
       <c r="Z85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>0.57446594672319284</v>
       </c>
       <c r="AA85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>0.64567581532086638</v>
       </c>
       <c r="AB85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>0.71096541687360681</v>
       </c>
       <c r="AC85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>0.76853752782630391</v>
       </c>
       <c r="AD85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>0.81758451999278503</v>
       </c>
       <c r="AE85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>0.85815674499131978</v>
       </c>
       <c r="AF85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>0.8909091853463238</v>
       </c>
       <c r="AG85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>0.91683188274389593</v>
       </c>
       <c r="AH85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>0.93703011106605905</v>
       </c>
       <c r="AI85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>0.95257673794797304</v>
       </c>
       <c r="AJ85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>0.96443076916976178</v>
       </c>
       <c r="AK85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>0.97340447077338332</v>
       </c>
       <c r="AL85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>0.98016078661331751</v>
       </c>
       <c r="AM85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>0.98522678172035316</v>
       </c>
       <c r="AN85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>0.98901366227733123</v>
       </c>
       <c r="AO85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>0.99183787825338932</v>
       </c>
       <c r="AP85" s="16">
         <f>IF($F85="s-curve",$D85+($E85-$D85)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D85:$E85,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>0.99394053214280942</v>
       </c>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
@@ -66824,12 +67477,13 @@
       <c r="D86" s="16">
         <v>0</v>
       </c>
-      <c r="E86" s="16">
-        <v>0</v>
+      <c r="E86" s="70">
+        <f>E9</f>
+        <v>1.2701082758175626E-3</v>
       </c>
       <c r="F86" s="9" t="str">
         <f t="shared" si="14"/>
-        <v>n/a</v>
+        <v>s-curve</v>
       </c>
       <c r="H86" s="49"/>
       <c r="I86" s="48">
@@ -66838,287 +67492,289 @@
       </c>
       <c r="J86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>1.3954606761049181E-5</v>
       </c>
       <c r="K86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>1.8764619920817064E-5</v>
       </c>
       <c r="L86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>2.5199336507602488E-5</v>
       </c>
       <c r="M86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>3.3781061653843889E-5</v>
       </c>
       <c r="N86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>4.5179261875848117E-5</v>
       </c>
       <c r="O86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>6.0235994010701734E-5</v>
       </c>
       <c r="P86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>7.9982980683997301E-5</v>
       </c>
       <c r="Q86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>1.0563833013899318E-4</v>
       </c>
       <c r="R86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>1.3856477546593684E-4</v>
       </c>
       <c r="S86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>1.8016621146364376E-4</v>
       </c>
       <c r="T86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>2.3170016750680698E-4</v>
       </c>
       <c r="U86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>2.9399858812455975E-4</v>
       </c>
       <c r="V86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>3.6712542884516516E-4</v>
       </c>
       <c r="W86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>4.5005485794638134E-4</v>
       </c>
       <c r="X86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>5.4050408123360516E-4</v>
       </c>
       <c r="Y86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>6.3505413790878131E-4</v>
       </c>
       <c r="Z86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>7.2960419458395747E-4</v>
       </c>
       <c r="AA86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>8.2005341787118129E-4</v>
       </c>
       <c r="AB86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>9.0298284697239747E-4</v>
       </c>
       <c r="AC86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>9.7610968769300287E-4</v>
       </c>
       <c r="AD86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>1.0384081083107555E-3</v>
       </c>
       <c r="AE86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>1.0899420643539189E-3</v>
       </c>
       <c r="AF86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>1.1315435003516258E-3</v>
       </c>
       <c r="AG86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>1.1644699456785695E-3</v>
       </c>
       <c r="AH86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>1.1901252951335654E-3</v>
       </c>
       <c r="AI86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>1.2098722818068609E-3</v>
       </c>
       <c r="AJ86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>1.2249290139417146E-3</v>
       </c>
       <c r="AK86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>1.2363272141637186E-3</v>
       </c>
       <c r="AL86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>1.2449089393099602E-3</v>
       </c>
       <c r="AM86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>1.2513436558967456E-3</v>
       </c>
       <c r="AN86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>1.2561536690565134E-3</v>
       </c>
       <c r="AO86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>1.2597409266439845E-3</v>
       </c>
       <c r="AP86" s="16">
         <f>IF($F86="s-curve",$D86+($E86-$D86)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D86:$E86,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>1.26241167179329E-3</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C87" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="16">
-        <v>0</v>
-      </c>
-      <c r="E87" s="16">
-        <v>0</v>
+      <c r="D87" s="63">
+        <f>'SYVbT-freight'!D7/SUM('SYVbT-freight'!7:7)</f>
+        <v>5.5056983978417665E-4</v>
+      </c>
+      <c r="E87" s="70">
+        <f t="shared" ref="E87:E91" si="15">E10</f>
+        <v>1</v>
       </c>
       <c r="F87" s="9" t="str">
         <f t="shared" si="14"/>
-        <v>n/a</v>
+        <v>linear</v>
       </c>
       <c r="H87" s="49"/>
       <c r="I87" s="48">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.5056983978417665E-4</v>
       </c>
       <c r="J87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>3.0836916208272669E-2</v>
       </c>
       <c r="K87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>6.1123262576764148E-2</v>
       </c>
       <c r="L87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>9.1409608945255627E-2</v>
       </c>
       <c r="M87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>0.12169595531374711</v>
       </c>
       <c r="N87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>0.15198230168223859</v>
       </c>
       <c r="O87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>0.18226864805073006</v>
       </c>
       <c r="P87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>0.21255499441922154</v>
       </c>
       <c r="Q87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>0.24284134078771302</v>
       </c>
       <c r="R87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>0.2731276871562045</v>
       </c>
       <c r="S87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>0.30341403352469598</v>
       </c>
       <c r="T87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>0.33370037989318746</v>
       </c>
       <c r="U87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>0.36398672626167894</v>
       </c>
       <c r="V87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>0.39427307263017042</v>
       </c>
       <c r="W87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>0.4245594189986619</v>
       </c>
       <c r="X87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>0.45484576536715338</v>
       </c>
       <c r="Y87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>0.48513211173564486</v>
       </c>
       <c r="Z87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>0.51541845810413633</v>
       </c>
       <c r="AA87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>0.54570480447262781</v>
       </c>
       <c r="AB87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>0.57599115084111929</v>
       </c>
       <c r="AC87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>0.60627749720961077</v>
       </c>
       <c r="AD87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>0.63656384357810225</v>
       </c>
       <c r="AE87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>0.66685018994659373</v>
       </c>
       <c r="AF87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>0.69713653631508521</v>
       </c>
       <c r="AG87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>0.72742288268357669</v>
       </c>
       <c r="AH87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>0.75770922905206817</v>
       </c>
       <c r="AI87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>0.78799557542055965</v>
       </c>
       <c r="AJ87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>0.81828192178905113</v>
       </c>
       <c r="AK87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>0.8485682681575426</v>
       </c>
       <c r="AL87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>0.87885461452603408</v>
       </c>
       <c r="AM87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>0.90914096089452556</v>
       </c>
       <c r="AN87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>0.93942730726301704</v>
       </c>
       <c r="AO87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>0.96971365363150852</v>
       </c>
       <c r="AP87" s="16">
         <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D87:$E87,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
@@ -67128,12 +67784,13 @@
       <c r="D88" s="16">
         <v>0</v>
       </c>
-      <c r="E88" s="16">
-        <v>0</v>
+      <c r="E88" s="70">
+        <f t="shared" si="15"/>
+        <v>7.3359922154128565E-2</v>
       </c>
       <c r="F88" s="9" t="str">
         <f t="shared" si="14"/>
-        <v>n/a</v>
+        <v>linear</v>
       </c>
       <c r="H88" s="49"/>
       <c r="I88" s="48">
@@ -67142,135 +67799,135 @@
       </c>
       <c r="J88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>2.2230279440647038E-3</v>
       </c>
       <c r="K88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>4.4460558881294077E-3</v>
       </c>
       <c r="L88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>6.6690838321932233E-3</v>
       </c>
       <c r="M88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>8.8921117762579271E-3</v>
       </c>
       <c r="N88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>1.1115139720322631E-2</v>
       </c>
       <c r="O88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>1.3338167664387335E-2</v>
       </c>
       <c r="P88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>1.556119560845115E-2</v>
       </c>
       <c r="Q88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>1.7784223552515854E-2</v>
       </c>
       <c r="R88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>2.0007251496580558E-2</v>
       </c>
       <c r="S88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>2.2230279440645262E-2</v>
       </c>
       <c r="T88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>2.4453307384709966E-2</v>
       </c>
       <c r="U88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>2.6676335328773781E-2</v>
       </c>
       <c r="V88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>2.8899363272838485E-2</v>
       </c>
       <c r="W88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>3.1122391216903189E-2</v>
       </c>
       <c r="X88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>3.3345419160967893E-2</v>
       </c>
       <c r="Y88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>3.5568447105031709E-2</v>
       </c>
       <c r="Z88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>3.7791475049096412E-2</v>
       </c>
       <c r="AA88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>4.0014502993161116E-2</v>
       </c>
       <c r="AB88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>4.223753093722582E-2</v>
       </c>
       <c r="AC88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>4.4460558881289636E-2</v>
       </c>
       <c r="AD88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>4.668358682535434E-2</v>
       </c>
       <c r="AE88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>4.8906614769419043E-2</v>
       </c>
       <c r="AF88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>5.1129642713483747E-2</v>
       </c>
       <c r="AG88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>5.3352670657548451E-2</v>
       </c>
       <c r="AH88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>5.5575698601612267E-2</v>
       </c>
       <c r="AI88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>5.7798726545676971E-2</v>
       </c>
       <c r="AJ88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>6.0021754489741674E-2</v>
       </c>
       <c r="AK88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>6.2244782433806378E-2</v>
       </c>
       <c r="AL88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>6.4467810377870194E-2</v>
       </c>
       <c r="AM88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>6.6690838321934898E-2</v>
       </c>
       <c r="AN88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>6.8913866265999602E-2</v>
       </c>
       <c r="AO88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>7.1136894210064305E-2</v>
       </c>
       <c r="AP88" s="16">
         <f>IF($F88="s-curve",$D88+($E88-$D88)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D88:$E88,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>7.3359922154129009E-2</v>
       </c>
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
@@ -67280,12 +67937,13 @@
       <c r="D89" s="16">
         <v>0</v>
       </c>
-      <c r="E89" s="16">
-        <v>0</v>
+      <c r="E89" s="70">
+        <f t="shared" si="15"/>
+        <v>0.10046762944758371</v>
       </c>
       <c r="F89" s="9" t="str">
         <f t="shared" si="14"/>
-        <v>n/a</v>
+        <v>s-curve</v>
       </c>
       <c r="H89" s="49"/>
       <c r="I89" s="48">
@@ -67294,287 +67952,288 @@
       </c>
       <c r="J89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>1.1038320809722963E-3</v>
       </c>
       <c r="K89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>1.484311941606615E-3</v>
       </c>
       <c r="L89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>1.9933084846180697E-3</v>
       </c>
       <c r="M89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>2.6721368951003236E-3</v>
       </c>
       <c r="N89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>3.5737530628530763E-3</v>
       </c>
       <c r="O89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>4.7647650526318787E-3</v>
       </c>
       <c r="P89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>6.3267838014050759E-3</v>
       </c>
       <c r="Q89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>8.3561636515077382E-3</v>
       </c>
       <c r="R89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>1.0960699005790135E-2</v>
       </c>
       <c r="S89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>1.4251440225167358E-2</v>
       </c>
       <c r="T89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>1.8327859927558369E-2</v>
       </c>
       <c r="U89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>2.325576627771991E-2</v>
       </c>
       <c r="V89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>2.9040218261910871E-2</v>
       </c>
       <c r="W89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>3.5600070923194858E-2</v>
       </c>
       <c r="X89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>4.2754751529612577E-2</v>
       </c>
       <c r="Y89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>5.0233814723791854E-2</v>
       </c>
       <c r="Z89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>5.7712877917971132E-2</v>
       </c>
       <c r="AA89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>6.4867558524388844E-2</v>
       </c>
       <c r="AB89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>7.1427411185672834E-2</v>
       </c>
       <c r="AC89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>7.7211863169863795E-2</v>
       </c>
       <c r="AD89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>8.213976952002533E-2</v>
       </c>
       <c r="AE89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>8.6216189222416362E-2</v>
       </c>
       <c r="AF89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>8.9506930441793572E-2</v>
       </c>
       <c r="AG89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>9.2111465796075973E-2</v>
       </c>
       <c r="AH89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>9.4140845646178639E-2</v>
       </c>
       <c r="AI89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>9.5702864394951834E-2</v>
       </c>
       <c r="AJ89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>9.689387638473064E-2</v>
       </c>
       <c r="AK89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>9.7795492552483376E-2</v>
       </c>
       <c r="AL89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>9.8474320962965642E-2</v>
       </c>
       <c r="AM89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>9.8983317505977095E-2</v>
       </c>
       <c r="AN89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>9.9363797366611412E-2</v>
       </c>
       <c r="AO89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>9.9647555273628508E-2</v>
       </c>
       <c r="AP89" s="16">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D89:$E89,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>9.9858815556801317E-2</v>
       </c>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D90" s="16">
-        <v>0</v>
-      </c>
-      <c r="E90" s="16">
-        <v>0</v>
+      <c r="D90" s="63">
+        <f>'SYVbT-freight'!G7/SUM('SYVbT-freight'!7:7)</f>
+        <v>0.99939437317623736</v>
+      </c>
+      <c r="E90" s="70">
+        <v>1</v>
       </c>
       <c r="F90" s="9" t="str">
-        <f t="shared" ref="F90:F91" si="15">IF(D90=E90,"n/a",IF(OR(C90="battery electric vehicle",C90="natural gas vehicle",C90="plugin hybrid vehicle",C90="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>n/a</v>
+        <f t="shared" ref="F90:F91" si="16">IF(D90=E90,"n/a",IF(OR(C90="battery electric vehicle",C90="natural gas vehicle",C90="plugin hybrid vehicle",C90="hydrogen vehicle"),"s-curve","linear"))</f>
+        <v>linear</v>
       </c>
       <c r="H90" s="49"/>
       <c r="I90" s="48">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.99939437317623736</v>
       </c>
       <c r="J90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>0.99941272550423021</v>
       </c>
       <c r="K90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>0.99943107783222296</v>
       </c>
       <c r="L90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>0.99944943016021581</v>
       </c>
       <c r="M90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>0.99946778248820867</v>
       </c>
       <c r="N90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>0.99948613481620141</v>
       </c>
       <c r="O90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>0.99950448714419426</v>
       </c>
       <c r="P90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>0.99952283947218701</v>
       </c>
       <c r="Q90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>0.99954119180017986</v>
       </c>
       <c r="R90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>0.99955954412817261</v>
       </c>
       <c r="S90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>0.99957789645616546</v>
       </c>
       <c r="T90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>0.99959624878415831</v>
       </c>
       <c r="U90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>0.99961460111215106</v>
       </c>
       <c r="V90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>0.99963295344014391</v>
       </c>
       <c r="W90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>0.99965130576813666</v>
       </c>
       <c r="X90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>0.99966965809612951</v>
       </c>
       <c r="Y90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>0.99968801042412236</v>
       </c>
       <c r="Z90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>0.99970636275211511</v>
       </c>
       <c r="AA90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>0.99972471508010796</v>
       </c>
       <c r="AB90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>0.99974306740810071</v>
       </c>
       <c r="AC90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>0.99976141973609356</v>
       </c>
       <c r="AD90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>0.9997797720640863</v>
       </c>
       <c r="AE90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>0.99979812439207916</v>
       </c>
       <c r="AF90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>0.9998164767200719</v>
       </c>
       <c r="AG90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>0.99983482904806475</v>
       </c>
       <c r="AH90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>0.99985318137605761</v>
       </c>
       <c r="AI90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>0.99987153370405035</v>
       </c>
       <c r="AJ90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>0.99988988603204321</v>
       </c>
       <c r="AK90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>0.99990823836003595</v>
       </c>
       <c r="AL90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>0.9999265906880288</v>
       </c>
       <c r="AM90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>0.99994494301602166</v>
       </c>
       <c r="AN90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>0.9999632953440144</v>
       </c>
       <c r="AO90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>0.99998164767200726</v>
       </c>
       <c r="AP90" s="16">
         <f>IF($F90="s-curve",$D90+($E90-$D90)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D90:$E90,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67586,12 +68245,13 @@
       <c r="D91" s="51">
         <v>0</v>
       </c>
-      <c r="E91" s="51">
-        <v>0</v>
+      <c r="E91" s="71">
+        <f t="shared" si="15"/>
+        <v>1.1098646747003752E-2</v>
       </c>
       <c r="F91" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>n/a</v>
+        <f t="shared" si="16"/>
+        <v>s-curve</v>
       </c>
       <c r="H91" s="49"/>
       <c r="I91" s="48">
@@ -67600,135 +68260,135 @@
       </c>
       <c r="J91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,J$7))</f>
-        <v>0</v>
+        <v>1.2194019508654985E-4</v>
       </c>
       <c r="K91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,K$7))</f>
-        <v>0</v>
+        <v>1.6397175879267535E-4</v>
       </c>
       <c r="L91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,L$7))</f>
-        <v>0</v>
+        <v>2.2020054469507926E-4</v>
       </c>
       <c r="M91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,M$7))</f>
-        <v>0</v>
+        <v>2.9519063624196203E-4</v>
       </c>
       <c r="N91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,N$7))</f>
-        <v>0</v>
+        <v>3.9479206410779832E-4</v>
       </c>
       <c r="O91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,O$7))</f>
-        <v>0</v>
+        <v>5.2636301306601405E-4</v>
       </c>
       <c r="P91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,P$7))</f>
-        <v>0</v>
+        <v>6.9891903334989337E-4</v>
       </c>
       <c r="Q91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,Q$7))</f>
-        <v>0</v>
+        <v>9.2310437738180192E-4</v>
       </c>
       <c r="R91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,R$7))</f>
-        <v>0</v>
+        <v>1.2108270796711393E-3</v>
       </c>
       <c r="S91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,S$7))</f>
-        <v>0</v>
+        <v>1.5743548600168173E-3</v>
       </c>
       <c r="T91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,T$7))</f>
-        <v>0</v>
+        <v>2.0246764463638725E-3</v>
       </c>
       <c r="U91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,U$7))</f>
-        <v>0</v>
+        <v>2.5690616586306171E-3</v>
       </c>
       <c r="V91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,V$7))</f>
-        <v>0</v>
+        <v>3.2080693624108167E-3</v>
       </c>
       <c r="W91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,W$7))</f>
-        <v>0</v>
+        <v>3.9327354842283689E-3</v>
       </c>
       <c r="X91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,X$7))</f>
-        <v>0</v>
+        <v>4.7231121764513846E-3</v>
       </c>
       <c r="Y91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,Y$7))</f>
-        <v>0</v>
+        <v>5.5493233735018762E-3</v>
       </c>
       <c r="Z91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,Z$7))</f>
-        <v>0</v>
+        <v>6.3755345705523679E-3</v>
       </c>
       <c r="AA91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AA$7))</f>
-        <v>0</v>
+        <v>7.1659112627753827E-3</v>
       </c>
       <c r="AB91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AB$7))</f>
-        <v>0</v>
+        <v>7.8905773845929349E-3</v>
       </c>
       <c r="AC91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AC$7))</f>
-        <v>0</v>
+        <v>8.5295850883731344E-3</v>
       </c>
       <c r="AD91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AD$7))</f>
-        <v>0</v>
+        <v>9.07397030063988E-3</v>
       </c>
       <c r="AE91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AE$7))</f>
-        <v>0</v>
+        <v>9.524291886986936E-3</v>
       </c>
       <c r="AF91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AF$7))</f>
-        <v>0</v>
+        <v>9.8878196673326136E-3</v>
       </c>
       <c r="AG91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AG$7))</f>
-        <v>0</v>
+        <v>1.017554236962195E-2</v>
       </c>
       <c r="AH91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AH$7))</f>
-        <v>0</v>
+        <v>1.0399727713653859E-2</v>
       </c>
       <c r="AI91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AI$7))</f>
-        <v>0</v>
+        <v>1.0572283733937739E-2</v>
       </c>
       <c r="AJ91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AJ$7))</f>
-        <v>0</v>
+        <v>1.0703854682895954E-2</v>
       </c>
       <c r="AK91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AK$7))</f>
-        <v>0</v>
+        <v>1.080345611076179E-2</v>
       </c>
       <c r="AL91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AL$7))</f>
-        <v>0</v>
+        <v>1.0878446202308673E-2</v>
       </c>
       <c r="AM91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AM$7))</f>
-        <v>0</v>
+        <v>1.0934674988211077E-2</v>
       </c>
       <c r="AN91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AN$7))</f>
-        <v>0</v>
+        <v>1.0976706551917204E-2</v>
       </c>
       <c r="AO91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AO$7))</f>
-        <v>0</v>
+        <v>1.1008053253227549E-2</v>
       </c>
       <c r="AP91" s="16">
         <f>IF($F91="s-curve",$D91+($E91-$D91)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D91:$E91,$D$7:$E$7,AP$7))</f>
-        <v>0</v>
+        <v>1.1031391150891693E-2</v>
       </c>
     </row>
   </sheetData>
@@ -67743,14 +68403,15 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="16"/>
+    <col min="2" max="2" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
@@ -68745,140 +69406,106 @@
         <v>587</v>
       </c>
       <c r="B8" s="16">
-        <f>Data!I14</f>
-        <v>1.644346171681683E-5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="16">
-        <f>Data!J14</f>
-        <v>1.3820299343283564E-4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>Data!K14</f>
-        <v>1.8017228428494078E-4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
-        <f>Data!L14</f>
-        <v>2.3631776310410784E-4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>Data!M14</f>
-        <v>3.1119675131311526E-4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>Data!N14</f>
-        <v>4.106506123355889E-4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f>Data!O14</f>
-        <v>5.4202662925284886E-4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f>Data!P14</f>
-        <v>7.1432699509720737E-4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16">
-        <f>Data!Q14</f>
-        <v>9.3818019204793652E-4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16">
-        <f>Data!R14</f>
-        <v>1.2254766119851996E-3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>Data!S14</f>
-        <v>1.5884657991784531E-3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="16">
-        <f>Data!T14</f>
-        <v>2.038120200963809E-3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f>Data!U14</f>
-        <v>2.5816988664865083E-3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="16">
-        <f>Data!V14</f>
-        <v>3.2197598333398207E-3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="16">
-        <f>Data!W14</f>
-        <v>3.9433523089820142E-3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>Data!X14</f>
-        <v>4.7325579999850896E-3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f>Data!Y14</f>
-        <v>5.5575451043602848E-3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="16">
-        <f>Data!Z14</f>
-        <v>6.3825322087354801E-3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="16">
-        <f>Data!AA14</f>
-        <v>7.1717378997385546E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>Data!AB14</f>
-        <v>7.8953303753807481E-3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="16">
-        <f>Data!AC14</f>
-        <v>8.5333913422340601E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f>Data!AD14</f>
-        <v>9.076970007756759E-3</v>
+        <v>0</v>
       </c>
       <c r="X8" s="16">
-        <f>Data!AE14</f>
-        <v>9.5266244095421164E-3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>Data!AF14</f>
-        <v>9.8896135967353697E-3</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <f>Data!AG14</f>
-        <v>1.0176910016672633E-2</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f>Data!AH14</f>
-        <v>1.0400763213623362E-2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <f>Data!AI14</f>
-        <v>1.0573063579467721E-2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="16">
-        <f>Data!AJ14</f>
-        <v>1.0704439596384981E-2</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="16">
-        <f>Data!AK14</f>
-        <v>1.0803893457407454E-2</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="16">
-        <f>Data!AL14</f>
-        <v>1.0878772445616462E-2</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="16">
-        <f>Data!AM14</f>
-        <v>1.0934917924435629E-2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="16">
-        <f>Data!AN14</f>
-        <v>1.0976887215287733E-2</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="16">
-        <f>Data!AO14</f>
-        <v>1.1008187474153816E-2</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="16">
-        <f>Data!AP14</f>
-        <v>1.1031490795005532E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -68887,21 +69514,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69139,27 +69766,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-web\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{9DA27FD6-9439-4691-A891-0DCAAE6C311A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC3CA88C-E337-488F-86DC-45B405EF0F79}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{9DA27FD6-9439-4691-A891-0DCAAE6C311A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3414E9B2-834F-419F-8C49-18180154AF74}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2805" yWindow="1380" windowWidth="13305" windowHeight="10920" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22932,7 +22932,7 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -54452,7 +54452,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68403,8 +68403,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AI8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69523,15 +69523,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -69765,6 +69756,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
   <ds:schemaRefs>
@@ -69774,24 +69774,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC172D0-2C1E-40B7-AE9F-1B7937C082BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69809,4 +69791,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>